--- a/cooking_energy.xlsx
+++ b/cooking_energy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/Library/CloudStorage/GoogleDrive-bikash@vasudhaindia.org/My Drive/01-cooking/01-analysis-files/cooking-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42B9CA-F6CB-0B4D-8E32-813BD4CB2D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8CAD1-0E29-9743-8130-3D3699253916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E40E22CB-8837-485E-9211-3FB4E597DAEA}"/>
   </bookViews>
@@ -533,6 +533,7 @@
   <authors>
     <author>tc={E96D9C05-DC2A-4EBA-B75A-7F42E3A5DC08}</author>
     <author>Vasudha</author>
+    <author>Bikash Sahu</author>
     <author>tc={CABC94C2-98A4-4632-9084-270185BDFC5C}</author>
     <author>tc={BD8600A2-4AD7-4D33-9E08-F4B5A0B91018}</author>
     <author>tc={7E3A6431-EA22-4888-A91C-F244E0F0FBAC}</author>
@@ -635,7 +636,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="K26" authorId="2" shapeId="0" xr:uid="{CABC94C2-98A4-4632-9084-270185BDFC5C}">
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{6DC77B29-E464-0246-8A03-C8801B76B607}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bikash Sahu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">w/out storage
+Solar Panel: 2-3 kWp
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Induction Cooktop: Double Burner i.e., 1,200W*2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EESL estimated price</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="3" shapeId="0" xr:uid="{CABC94C2-98A4-4632-9084-270185BDFC5C}">
       <text>
         <r>
           <rPr>
@@ -824,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K30" authorId="3" shapeId="0" xr:uid="{BD8600A2-4AD7-4D33-9E08-F4B5A0B91018}">
+    <comment ref="K30" authorId="4" shapeId="0" xr:uid="{BD8600A2-4AD7-4D33-9E08-F4B5A0B91018}">
       <text>
         <r>
           <rPr>
@@ -841,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K34" authorId="4" shapeId="0" xr:uid="{7E3A6431-EA22-4888-A91C-F244E0F0FBAC}">
+    <comment ref="K34" authorId="5" shapeId="0" xr:uid="{7E3A6431-EA22-4888-A91C-F244E0F0FBAC}">
       <text>
         <r>
           <rPr>
@@ -858,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K38" authorId="5" shapeId="0" xr:uid="{7EC7FDE6-CC78-4AD3-8331-C0BF48E0E6E5}">
+    <comment ref="K38" authorId="6" shapeId="0" xr:uid="{7EC7FDE6-CC78-4AD3-8331-C0BF48E0E6E5}">
       <text>
         <r>
           <rPr>
@@ -949,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K46" authorId="6" shapeId="0" xr:uid="{8BDA940D-6BBE-40BD-B766-87BCE85D0105}">
+    <comment ref="K46" authorId="7" shapeId="0" xr:uid="{8BDA940D-6BBE-40BD-B766-87BCE85D0105}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K54" authorId="7" shapeId="0" xr:uid="{D0395940-F957-3344-945E-1A0D77F53F2C}">
+    <comment ref="K54" authorId="8" shapeId="0" xr:uid="{D0395940-F957-3344-945E-1A0D77F53F2C}">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K55" authorId="8" shapeId="0" xr:uid="{C2897EBB-0ECA-0A42-81F7-6F1014299541}">
+    <comment ref="K55" authorId="9" shapeId="0" xr:uid="{C2897EBB-0ECA-0A42-81F7-6F1014299541}">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K56" authorId="9" shapeId="0" xr:uid="{F2AD0E3F-2D4F-DF4C-9833-141ADF59680B}">
+    <comment ref="K56" authorId="10" shapeId="0" xr:uid="{F2AD0E3F-2D4F-DF4C-9833-141ADF59680B}">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K57" authorId="10" shapeId="0" xr:uid="{C07E013F-DD6E-3248-A59D-6C1263B8D716}">
+    <comment ref="K57" authorId="11" shapeId="0" xr:uid="{C07E013F-DD6E-3248-A59D-6C1263B8D716}">
       <text>
         <r>
           <rPr>
@@ -1438,6 +1503,59 @@
             <family val="2"/>
           </rPr>
           <t>- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H59" authorId="2" shapeId="0" xr:uid="{E0E7C4DD-887A-8B4E-93A7-7B1ACCFB414F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bikash Sahu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://www.jstor.org/stable/resrep21836.8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>900 to 2600 - cost rnage of improved cookstoves</t>
         </r>
       </text>
     </comment>
@@ -4421,7 +4539,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4527,6 +4645,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4748,7 +4879,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4985,36 +5116,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6883,7 +7004,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" workbookViewId="0">
       <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11426,8 +11547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A84533-C657-4214-823E-030F0B5790EA}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11439,7 +11560,7 @@
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="73" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" customWidth="1"/>
@@ -11509,16 +11630,17 @@
         <v>17</v>
       </c>
       <c r="F2" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="56">
         <v>5</v>
       </c>
       <c r="H2" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J2" s="56">
         <v>3.9000000000000004</v>
@@ -11559,10 +11681,11 @@
         <v>5</v>
       </c>
       <c r="H3" s="18">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I3" s="78">
-        <v>200</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>300</v>
       </c>
       <c r="J3" s="56">
         <v>2.6</v>
@@ -11597,16 +11720,17 @@
         <v>17</v>
       </c>
       <c r="F4" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="56">
         <v>0</v>
       </c>
       <c r="H4" s="18">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="I4" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>275</v>
       </c>
       <c r="J4" s="56">
         <v>3.9000000000000004</v>
@@ -11641,16 +11765,17 @@
         <v>17</v>
       </c>
       <c r="F5" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="56">
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="I5" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>600</v>
       </c>
       <c r="J5" s="56">
         <v>2.6</v>
@@ -11685,16 +11810,17 @@
         <v>18</v>
       </c>
       <c r="F6" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G6" s="56">
         <v>6</v>
       </c>
       <c r="H6" s="18">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I6" s="78">
-        <v>250</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>200</v>
       </c>
       <c r="J6" s="56">
         <v>4</v>
@@ -11735,10 +11861,11 @@
         <v>6</v>
       </c>
       <c r="H7" s="18">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="I7" s="78">
-        <v>500</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>400</v>
       </c>
       <c r="J7" s="56">
         <v>2.7</v>
@@ -11773,16 +11900,17 @@
         <v>18</v>
       </c>
       <c r="F8" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G8" s="56">
         <v>0</v>
       </c>
       <c r="H8" s="18">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="I8" s="78">
-        <v>250</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>300</v>
       </c>
       <c r="J8" s="56">
         <v>4</v>
@@ -11817,16 +11945,17 @@
         <v>18</v>
       </c>
       <c r="F9" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="56">
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <v>18000</v>
+        <v>130000</v>
       </c>
       <c r="I9" s="78">
-        <v>250</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>650</v>
       </c>
       <c r="J9" s="56">
         <v>2.7</v>
@@ -11861,16 +11990,17 @@
         <v>19</v>
       </c>
       <c r="F10" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="56">
         <v>7</v>
       </c>
       <c r="H10" s="18">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I10" s="78">
-        <v>500</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>300</v>
       </c>
       <c r="J10" s="56">
         <v>4.0999999999999996</v>
@@ -11911,10 +12041,11 @@
         <v>7</v>
       </c>
       <c r="H11" s="18">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I11" s="78">
-        <v>1000</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>600</v>
       </c>
       <c r="J11" s="56">
         <v>2.8</v>
@@ -11949,16 +12080,17 @@
         <v>19</v>
       </c>
       <c r="F12" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="56">
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <v>21600</v>
+        <v>65000</v>
       </c>
       <c r="I12" s="78">
-        <v>500</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>325</v>
       </c>
       <c r="J12" s="56">
         <v>4.0999999999999996</v>
@@ -11993,16 +12125,17 @@
         <v>19</v>
       </c>
       <c r="F13" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="56">
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <v>21600</v>
+        <v>140000</v>
       </c>
       <c r="I13" s="78">
-        <v>500</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>700</v>
       </c>
       <c r="J13" s="56">
         <v>2.8</v>
@@ -12037,15 +12170,16 @@
         <v>17</v>
       </c>
       <c r="F14" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="56">
         <v>6</v>
       </c>
       <c r="H14" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="78">
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
         <v>150</v>
       </c>
       <c r="J14" s="56">
@@ -12087,9 +12221,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="18">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="I15" s="78">
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
         <v>300</v>
       </c>
       <c r="J15" s="56">
@@ -12125,13 +12260,13 @@
         <v>17</v>
       </c>
       <c r="F16" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G16" s="56">
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>16500</v>
+        <v>55000</v>
       </c>
       <c r="I16" s="78">
         <v>150</v>
@@ -12169,16 +12304,17 @@
         <v>17</v>
       </c>
       <c r="F17" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G17" s="56">
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>16500</v>
+        <v>120000</v>
       </c>
       <c r="I17" s="78">
-        <v>150</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>600</v>
       </c>
       <c r="J17" s="56">
         <v>2.6</v>
@@ -12213,16 +12349,17 @@
         <v>18</v>
       </c>
       <c r="F18" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G18" s="56">
         <v>7</v>
       </c>
       <c r="H18" s="18">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="78">
-        <v>400</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>200</v>
       </c>
       <c r="J18" s="56">
         <v>4</v>
@@ -12263,10 +12400,11 @@
         <v>7</v>
       </c>
       <c r="H19" s="18">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="I19" s="78">
-        <v>800</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>400</v>
       </c>
       <c r="J19" s="56">
         <v>2.7</v>
@@ -12301,13 +12439,13 @@
         <v>18</v>
       </c>
       <c r="F20" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G20" s="56">
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <v>19800</v>
+        <v>60000</v>
       </c>
       <c r="I20" s="78">
         <v>400</v>
@@ -12345,16 +12483,17 @@
         <v>18</v>
       </c>
       <c r="F21" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.85</v>
       </c>
       <c r="G21" s="56">
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <v>19800</v>
+        <v>130000</v>
       </c>
       <c r="I21" s="78">
-        <v>400</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>650</v>
       </c>
       <c r="J21" s="56">
         <v>2.7</v>
@@ -12389,16 +12528,17 @@
         <v>19</v>
       </c>
       <c r="F22" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G22" s="56">
         <v>8</v>
       </c>
       <c r="H22" s="18">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="78">
-        <v>800</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>300</v>
       </c>
       <c r="J22" s="56">
         <v>4.0999999999999996</v>
@@ -12439,10 +12579,11 @@
         <v>8</v>
       </c>
       <c r="H23" s="18">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I23" s="78">
-        <v>1600</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>600</v>
       </c>
       <c r="J23" s="56">
         <v>2.8</v>
@@ -12477,13 +12618,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G24" s="56">
         <v>0</v>
       </c>
       <c r="H24" s="18">
-        <v>2900</v>
+        <v>65000</v>
       </c>
       <c r="I24" s="78">
         <v>800</v>
@@ -12521,16 +12662,17 @@
         <v>19</v>
       </c>
       <c r="F25" s="74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="56">
         <v>0</v>
       </c>
       <c r="H25" s="18">
-        <v>5800</v>
+        <v>140000</v>
       </c>
       <c r="I25" s="78">
-        <v>1600</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>700</v>
       </c>
       <c r="J25" s="56">
         <v>2.8</v>
@@ -12574,11 +12716,11 @@
         <v>40000</v>
       </c>
       <c r="I26" s="78">
-        <f>H26*0.1</f>
+        <f t="shared" ref="I26:I37" si="0">H26*0.1</f>
         <v>4000</v>
       </c>
       <c r="J26" s="77">
-        <f t="shared" ref="J26:J28" si="0">J30*0.95</f>
+        <f t="shared" ref="J26:J28" si="1">J30*0.95</f>
         <v>2.7074999999999996</v>
       </c>
       <c r="K26" s="76">
@@ -12588,7 +12730,7 @@
         <v>60</v>
       </c>
       <c r="M26" s="3">
-        <f>N26/2.6</f>
+        <f t="shared" ref="M26:M37" si="2">N26/2.6</f>
         <v>1.0413461538461537</v>
       </c>
       <c r="N26" s="80">
@@ -12612,7 +12754,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="56">
         <v>6.38</v>
@@ -12621,11 +12763,11 @@
         <v>1000</v>
       </c>
       <c r="I27" s="78">
-        <f>H27*0.1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J27" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K27" s="56">
@@ -12635,7 +12777,7 @@
         <v>64</v>
       </c>
       <c r="M27" s="3">
-        <f>N27/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N27" s="80">
@@ -12659,20 +12801,20 @@
         <v>17</v>
       </c>
       <c r="F28" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G28" s="56">
         <v>5.86</v>
       </c>
       <c r="H28" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I28" s="78">
-        <f>H28*0.1</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J28" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K28" s="56">
@@ -12683,7 +12825,7 @@
         <v>47</v>
       </c>
       <c r="M28" s="3">
-        <f>N28/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N28" s="80">
@@ -12707,7 +12849,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G29" s="56">
         <v>6.38</v>
@@ -12716,7 +12858,7 @@
         <v>1000</v>
       </c>
       <c r="I29" s="78">
-        <f>H29*0.1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J29" s="56">
@@ -12731,7 +12873,7 @@
         <v>64</v>
       </c>
       <c r="M29" s="3">
-        <f>N29/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N29" s="80">
@@ -12764,11 +12906,11 @@
         <v>50000</v>
       </c>
       <c r="I30" s="78">
-        <f>H30*0.1</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="J30" s="77">
-        <f t="shared" ref="J30:J32" si="1">0.95*J34</f>
+        <f t="shared" ref="J30:J32" si="3">0.95*J34</f>
         <v>2.8499999999999996</v>
       </c>
       <c r="K30" s="76">
@@ -12778,7 +12920,7 @@
         <v>60</v>
       </c>
       <c r="M30" s="3">
-        <f>N30/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N30" s="80">
@@ -12802,20 +12944,20 @@
         <v>18</v>
       </c>
       <c r="F31" s="74">
-        <v>0.85000000000000009</v>
+        <v>0.65</v>
       </c>
       <c r="G31" s="56">
         <v>6.38</v>
       </c>
       <c r="H31" s="18">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="I31" s="78">
-        <f>H31*0.1</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J31" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K31" s="56">
@@ -12825,7 +12967,7 @@
         <v>64</v>
       </c>
       <c r="M31" s="3">
-        <f>N31/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N31" s="80">
@@ -12849,20 +12991,20 @@
         <v>18</v>
       </c>
       <c r="F32" s="74">
-        <v>0.85000000000000009</v>
+        <v>0.65</v>
       </c>
       <c r="G32" s="56">
         <v>5.86</v>
       </c>
       <c r="H32" s="18">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="78">
-        <f>H32*0.1</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="J32" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K32" s="56">
@@ -12872,7 +13014,7 @@
         <v>47</v>
       </c>
       <c r="M32" s="3">
-        <f>N32/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N32" s="80">
@@ -12896,17 +13038,17 @@
         <v>18</v>
       </c>
       <c r="F33" s="74">
-        <v>0.85000000000000009</v>
+        <v>0.65</v>
       </c>
       <c r="G33" s="56">
         <v>6.38</v>
       </c>
       <c r="H33" s="18">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I33" s="78">
-        <f>H33*0.1</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J33" s="56">
         <f>0.95*J37</f>
@@ -12919,7 +13061,7 @@
         <v>64</v>
       </c>
       <c r="M33" s="3">
-        <f>N33/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N33" s="80">
@@ -12952,7 +13094,7 @@
         <v>60000</v>
       </c>
       <c r="I34" s="78">
-        <f>H34*0.1</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="J34" s="56">
@@ -12965,7 +13107,7 @@
         <v>60</v>
       </c>
       <c r="M34" s="3">
-        <f>N34/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N34" s="80">
@@ -12989,7 +13131,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.7</v>
       </c>
       <c r="G35" s="56">
         <v>6.38</v>
@@ -12998,7 +13140,7 @@
         <v>2000</v>
       </c>
       <c r="I35" s="78">
-        <f>H35*0.1</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="J35" s="56">
@@ -13011,7 +13153,7 @@
         <v>64</v>
       </c>
       <c r="M35" s="3">
-        <f>N35/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N35" s="80">
@@ -13035,7 +13177,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.7</v>
       </c>
       <c r="G36" s="56">
         <v>5.86</v>
@@ -13044,7 +13186,7 @@
         <v>2500</v>
       </c>
       <c r="I36" s="78">
-        <f>H36*0.1</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="J36" s="56">
@@ -13057,7 +13199,7 @@
         <v>47</v>
       </c>
       <c r="M36" s="3">
-        <f>N36/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N36" s="80">
@@ -13081,7 +13223,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.7</v>
       </c>
       <c r="G37" s="56">
         <v>6.38</v>
@@ -13090,7 +13232,7 @@
         <v>2000</v>
       </c>
       <c r="I37" s="78">
-        <f>H37*0.1</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="J37" s="56">
@@ -13103,7 +13245,7 @@
         <v>64</v>
       </c>
       <c r="M37" s="3">
-        <f>N37/2.6</f>
+        <f t="shared" si="2"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N37" s="80">
@@ -13127,16 +13269,17 @@
         <v>16</v>
       </c>
       <c r="F38" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G38" s="56">
         <v>5</v>
       </c>
       <c r="H38" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I38" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J38" s="56">
         <v>3.9000000000000004</v>
@@ -13177,10 +13320,11 @@
         <v>5</v>
       </c>
       <c r="H39" s="18">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I39" s="78">
-        <v>200</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>300</v>
       </c>
       <c r="J39" s="56">
         <v>2.6</v>
@@ -13215,13 +13359,13 @@
         <v>16</v>
       </c>
       <c r="F40" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G40" s="56">
         <v>0</v>
       </c>
       <c r="H40" s="18">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="I40" s="78">
         <v>100</v>
@@ -13259,16 +13403,17 @@
         <v>16</v>
       </c>
       <c r="F41" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G41" s="56">
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="I41" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>600</v>
       </c>
       <c r="J41" s="56">
         <v>2.6</v>
@@ -13303,15 +13448,16 @@
         <v>16</v>
       </c>
       <c r="F42" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G42" s="56">
         <v>6</v>
       </c>
       <c r="H42" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I42" s="78">
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
         <v>150</v>
       </c>
       <c r="J42" s="56">
@@ -13353,9 +13499,10 @@
         <v>6</v>
       </c>
       <c r="H43" s="18">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="I43" s="78">
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
         <v>300</v>
       </c>
       <c r="J43" s="56">
@@ -13391,13 +13538,13 @@
         <v>16</v>
       </c>
       <c r="F44" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G44" s="56">
         <v>0</v>
       </c>
       <c r="H44" s="18">
-        <v>16500</v>
+        <v>55000</v>
       </c>
       <c r="I44" s="78">
         <v>150</v>
@@ -13435,16 +13582,17 @@
         <v>16</v>
       </c>
       <c r="F45" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="56">
         <v>0</v>
       </c>
       <c r="H45" s="18">
-        <v>16500</v>
+        <v>120000</v>
       </c>
       <c r="I45" s="78">
-        <v>150</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>600</v>
       </c>
       <c r="J45" s="56">
         <v>2.6</v>
@@ -13500,7 +13648,7 @@
         <v>60</v>
       </c>
       <c r="M46" s="3">
-        <f>N46/2.6</f>
+        <f t="shared" ref="M46:M56" si="4">N46/2.6</f>
         <v>1.0413461538461537</v>
       </c>
       <c r="N46" s="80">
@@ -13524,7 +13672,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G47" s="56">
         <v>6.38</v>
@@ -13545,7 +13693,7 @@
         <v>64</v>
       </c>
       <c r="M47" s="3">
-        <f>N47/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N47" s="80">
@@ -13569,16 +13717,17 @@
         <v>16</v>
       </c>
       <c r="F48" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G48" s="56">
         <v>5.86</v>
       </c>
       <c r="H48" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I48" s="78">
-        <v>110</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J48" s="77">
         <v>2.7074999999999996</v>
@@ -13590,7 +13739,7 @@
         <v>47</v>
       </c>
       <c r="M48" s="3">
-        <f>N48/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N48" s="80">
@@ -13614,7 +13763,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G49" s="56">
         <v>6.38</v>
@@ -13635,7 +13784,7 @@
         <v>64</v>
       </c>
       <c r="M49" s="3">
-        <f>N49/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N49" s="80">
@@ -13658,17 +13807,18 @@
       <c r="E50" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="75">
-        <v>0.8</v>
+      <c r="F50" s="74">
+        <v>0.6</v>
       </c>
       <c r="G50" s="56">
         <v>5.86</v>
       </c>
       <c r="H50" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I50" s="78">
-        <v>110</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J50" s="77">
         <v>2.7074999999999996</v>
@@ -13680,7 +13830,7 @@
         <v>47</v>
       </c>
       <c r="M50" s="3">
-        <f>N50/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N50" s="80">
@@ -13703,17 +13853,18 @@
       <c r="E51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="75">
-        <v>0.85000000000000009</v>
+      <c r="F51" s="74">
+        <v>0.65</v>
       </c>
       <c r="G51" s="56">
         <v>5.86</v>
       </c>
       <c r="H51" s="18">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="I51" s="78">
-        <v>130</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>200</v>
       </c>
       <c r="J51" s="77">
         <v>2.8499999999999996</v>
@@ -13725,7 +13876,7 @@
         <v>47</v>
       </c>
       <c r="M51" s="3">
-        <f>N51/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N51" s="80">
@@ -13748,8 +13899,8 @@
       <c r="E52" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="75">
-        <v>0.90000000000000013</v>
+      <c r="F52" s="74">
+        <v>0.7</v>
       </c>
       <c r="G52" s="56">
         <v>5.86</v>
@@ -13758,6 +13909,7 @@
         <v>2500</v>
       </c>
       <c r="I52" s="78">
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
         <v>250</v>
       </c>
       <c r="J52" s="56">
@@ -13770,7 +13922,7 @@
         <v>47</v>
       </c>
       <c r="M52" s="3">
-        <f>N52/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N52" s="80">
@@ -13793,17 +13945,18 @@
       <c r="E53" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="17">
-        <v>0.7</v>
+      <c r="F53" s="74">
+        <v>0.6</v>
       </c>
       <c r="G53" s="56">
         <v>5.86</v>
       </c>
       <c r="H53" s="18">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I53" s="78">
-        <v>110</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J53" s="77">
         <v>2.7074999999999996</v>
@@ -13815,7 +13968,7 @@
         <v>47</v>
       </c>
       <c r="M53" s="3">
-        <f>N53/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N53" s="80">
@@ -13848,11 +14001,11 @@
         <v>40000</v>
       </c>
       <c r="I54" s="78">
-        <f t="shared" ref="I54:I56" si="2">H54*0.1</f>
+        <f t="shared" ref="I54:I56" si="5">H54*0.1</f>
         <v>4000</v>
       </c>
       <c r="J54" s="77">
-        <f t="shared" ref="J54" si="3">J64*0.95</f>
+        <f t="shared" ref="J54" si="6">J64*0.95</f>
         <v>3.8</v>
       </c>
       <c r="K54" s="76">
@@ -13862,7 +14015,7 @@
         <v>60</v>
       </c>
       <c r="M54" s="3">
-        <f>N54/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N54" s="80">
@@ -13895,11 +14048,11 @@
         <v>50000</v>
       </c>
       <c r="I55" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="J55" s="77">
-        <f t="shared" ref="J55" si="4">0.95*J65</f>
+        <f t="shared" ref="J55" si="7">0.95*J65</f>
         <v>3.3249999999999997</v>
       </c>
       <c r="K55" s="76">
@@ -13909,7 +14062,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="3">
-        <f>N55/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N55" s="80">
@@ -13942,7 +14095,7 @@
         <v>60000</v>
       </c>
       <c r="I56" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="J56" s="56">
@@ -13955,7 +14108,7 @@
         <v>60</v>
       </c>
       <c r="M56" s="3">
-        <f>N56/2.6</f>
+        <f t="shared" si="4"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N56" s="80">
@@ -14000,7 +14153,7 @@
         <v>60</v>
       </c>
       <c r="M57" s="96">
-        <f t="shared" ref="M57" si="5">N57/2.6</f>
+        <f t="shared" ref="M57" si="8">N57/2.6</f>
         <v>1.0413461538461537</v>
       </c>
       <c r="N57" s="97">
@@ -14074,10 +14227,11 @@
         <v>1.34</v>
       </c>
       <c r="H59" s="18">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="78">
-        <v>75</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>100</v>
       </c>
       <c r="J59" s="77">
         <v>3.1587499999999995</v>
@@ -14118,10 +14272,11 @@
         <v>1.27</v>
       </c>
       <c r="H60" s="91">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I60" s="92">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J60" s="93">
         <v>2.933125</v>
@@ -14206,10 +14361,11 @@
         <v>1.34</v>
       </c>
       <c r="H62" s="18">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="I62" s="78">
-        <v>80</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>125</v>
       </c>
       <c r="J62" s="77">
         <v>3.3249999999999997</v>
@@ -14250,10 +14406,11 @@
         <v>1.27</v>
       </c>
       <c r="H63" s="18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I63" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>200</v>
       </c>
       <c r="J63" s="77">
         <v>3.0874999999999999</v>
@@ -14338,10 +14495,11 @@
         <v>1.34</v>
       </c>
       <c r="H65" s="18">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I65" s="78">
-        <v>90</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J65" s="77">
         <v>3.5</v>
@@ -14382,10 +14540,11 @@
         <v>1.27</v>
       </c>
       <c r="H66" s="18">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I66" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>250</v>
       </c>
       <c r="J66" s="77">
         <v>3.25</v>
@@ -14470,10 +14629,11 @@
         <v>1.34</v>
       </c>
       <c r="H68" s="18">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I68" s="78">
-        <v>75</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>100</v>
       </c>
       <c r="J68" s="77">
         <v>3.1587499999999995</v>
@@ -14514,10 +14674,11 @@
         <v>1.27</v>
       </c>
       <c r="H69" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I69" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J69" s="77">
         <v>2.933125</v>
@@ -14602,10 +14763,11 @@
         <v>1.34</v>
       </c>
       <c r="H71" s="18">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I71" s="78">
-        <v>75</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>100</v>
       </c>
       <c r="J71" s="77">
         <v>3.1587499999999995</v>
@@ -14646,10 +14808,11 @@
         <v>1.27</v>
       </c>
       <c r="H72" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I72" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J72" s="77">
         <v>2.933125</v>
@@ -14734,10 +14897,11 @@
         <v>1.34</v>
       </c>
       <c r="H74" s="18">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="I74" s="78">
-        <v>80</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>125</v>
       </c>
       <c r="J74" s="77">
         <v>3.3249999999999997</v>
@@ -14778,10 +14942,11 @@
         <v>1.27</v>
       </c>
       <c r="H75" s="18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I75" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>200</v>
       </c>
       <c r="J75" s="77">
         <v>3.0874999999999999</v>
@@ -14866,10 +15031,11 @@
         <v>1.34</v>
       </c>
       <c r="H77" s="18">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I77" s="78">
-        <v>90</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J77" s="77">
         <v>3.5</v>
@@ -14910,10 +15076,11 @@
         <v>1.27</v>
       </c>
       <c r="H78" s="18">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I78" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>250</v>
       </c>
       <c r="J78" s="77">
         <v>3.25</v>
@@ -14998,10 +15165,11 @@
         <v>1.34</v>
       </c>
       <c r="H80" s="18">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I80" s="78">
-        <v>75</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>100</v>
       </c>
       <c r="J80" s="77">
         <v>3.1587499999999995</v>
@@ -15042,10 +15210,11 @@
         <v>1.27</v>
       </c>
       <c r="H81" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I81" s="78">
-        <v>100</v>
+        <f>Table1[[#This Row],[Capex]]*0.1</f>
+        <v>150</v>
       </c>
       <c r="J81" s="77">
         <v>2.933125</v>
@@ -16840,2198 +17009,2198 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="105" t="s">
+      <c r="E39" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="106">
+      <c r="F39" s="74">
         <v>0.25</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="104">
         <v>1.41</v>
       </c>
       <c r="H39" s="18">
         <v>0</v>
       </c>
       <c r="I39" s="78">
-        <f>H39*0.1</f>
+        <f t="shared" ref="I39:I44" si="0">H39*0.1</f>
         <v>0</v>
       </c>
       <c r="J39" s="77">
         <f>backup!J47*0.95</f>
         <v>3.61</v>
       </c>
-      <c r="K39" s="107">
+      <c r="K39" s="104">
         <v>0.4</v>
       </c>
-      <c r="L39" s="108">
+      <c r="L39" s="105">
         <f>1230</f>
         <v>1230</v>
       </c>
-      <c r="M39" s="109">
-        <f>N39/2.6</f>
+      <c r="M39" s="3">
+        <f t="shared" ref="M39:M44" si="1">N39/2.6</f>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N39" s="109">
+      <c r="N39" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="106">
+      <c r="F40" s="74">
         <v>0.35</v>
       </c>
-      <c r="G40" s="107">
+      <c r="G40" s="104">
         <v>1.34</v>
       </c>
       <c r="H40" s="18">
         <v>750</v>
       </c>
       <c r="I40" s="78">
-        <f>H40*0.1</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="J40" s="77">
         <f>backup!J48*0.95</f>
         <v>3.1587499999999995</v>
       </c>
-      <c r="K40" s="107">
+      <c r="K40" s="104">
         <v>0.4</v>
       </c>
-      <c r="L40" s="108">
+      <c r="L40" s="105">
         <f>410</f>
         <v>410</v>
       </c>
-      <c r="M40" s="109">
-        <f>N40/2.6</f>
+      <c r="M40" s="3">
+        <f t="shared" si="1"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N40" s="109">
+      <c r="N40" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="104" t="s">
+      <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="105" t="s">
+      <c r="E41" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="106">
+      <c r="F41" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G41" s="107">
+      <c r="G41" s="104">
         <v>1.27</v>
       </c>
       <c r="H41" s="18">
         <v>1000</v>
       </c>
       <c r="I41" s="78">
-        <f>H41*0.1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J41" s="77">
         <f>backup!J49*0.95</f>
         <v>2.933125</v>
       </c>
-      <c r="K41" s="107">
+      <c r="K41" s="104">
         <v>0.4</v>
       </c>
-      <c r="L41" s="108">
+      <c r="L41" s="105">
         <f>165</f>
         <v>165</v>
       </c>
-      <c r="M41" s="109">
-        <f>N41/2.6</f>
+      <c r="M41" s="3">
+        <f t="shared" si="1"/>
         <v>1.128125</v>
       </c>
-      <c r="N41" s="109">
+      <c r="N41" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="105" t="s">
+      <c r="E42" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="106">
+      <c r="F42" s="74">
         <v>0.25</v>
       </c>
-      <c r="G42" s="107">
+      <c r="G42" s="104">
         <v>1.35</v>
       </c>
       <c r="H42" s="18">
         <v>500</v>
       </c>
       <c r="I42" s="78">
-        <f>H42*0.1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J42" s="77">
         <v>3.61</v>
       </c>
-      <c r="K42" s="107">
+      <c r="K42" s="104">
         <v>0.4</v>
       </c>
-      <c r="L42" s="108">
+      <c r="L42" s="105">
         <v>1230</v>
       </c>
-      <c r="M42" s="109">
-        <f>N42/2.6</f>
+      <c r="M42" s="3">
+        <f t="shared" si="1"/>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N42" s="109">
+      <c r="N42" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="E43" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="106">
+      <c r="F43" s="74">
         <v>0.35</v>
       </c>
-      <c r="G43" s="107">
+      <c r="G43" s="104">
         <v>1.28</v>
       </c>
       <c r="H43" s="18">
         <v>750</v>
       </c>
       <c r="I43" s="78">
-        <f>H43*0.1</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="J43" s="77">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K43" s="107">
+      <c r="K43" s="104">
         <v>0.4</v>
       </c>
-      <c r="L43" s="108">
+      <c r="L43" s="105">
         <v>410</v>
       </c>
-      <c r="M43" s="109">
-        <f>N43/2.6</f>
+      <c r="M43" s="3">
+        <f t="shared" si="1"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N43" s="109">
+      <c r="N43" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="106">
+      <c r="F44" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G44" s="104">
         <v>1.21</v>
       </c>
       <c r="H44" s="18">
         <v>1000</v>
       </c>
       <c r="I44" s="78">
-        <f>H44*0.1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J44" s="77">
         <v>2.933125</v>
       </c>
-      <c r="K44" s="107">
+      <c r="K44" s="104">
         <v>0.4</v>
       </c>
-      <c r="L44" s="108">
+      <c r="L44" s="105">
         <v>165</v>
       </c>
-      <c r="M44" s="109">
-        <f>N44/2.6</f>
+      <c r="M44" s="3">
+        <f t="shared" si="1"/>
         <v>1.128125</v>
       </c>
-      <c r="N44" s="109">
+      <c r="N44" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="105" t="s">
+      <c r="E47" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="110">
+      <c r="F47" s="106">
         <v>0.25</v>
       </c>
-      <c r="G47" s="111">
+      <c r="G47" s="107">
         <v>1.41</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="108">
         <v>0</v>
       </c>
-      <c r="I47" s="113">
-        <f>H47*0.1</f>
+      <c r="I47" s="109">
+        <f t="shared" ref="I47:I52" si="2">H47*0.1</f>
         <v>0</v>
       </c>
-      <c r="J47" s="114">
+      <c r="J47" s="110">
         <f>0.95*backup!J54</f>
         <v>3.8</v>
       </c>
-      <c r="K47" s="111">
+      <c r="K47" s="107">
         <v>0.4</v>
       </c>
-      <c r="L47" s="115">
+      <c r="L47" s="111">
         <v>1230</v>
       </c>
-      <c r="M47" s="109">
-        <f>N47/2.6</f>
+      <c r="M47" s="3">
+        <f t="shared" ref="M47:M52" si="3">N47/2.6</f>
         <v>1.4615384615384615</v>
       </c>
-      <c r="N47" s="109">
+      <c r="N47" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="105" t="s">
+      <c r="E48" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="110">
+      <c r="F48" s="106">
         <v>0.35</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="107">
         <v>1.34</v>
       </c>
-      <c r="H48" s="112">
+      <c r="H48" s="108">
         <v>800</v>
       </c>
-      <c r="I48" s="113">
-        <f>H48*0.1</f>
+      <c r="I48" s="109">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J48" s="114">
+      <c r="J48" s="110">
         <f>0.95*backup!J55</f>
         <v>3.3249999999999997</v>
       </c>
-      <c r="K48" s="111">
+      <c r="K48" s="107">
         <v>0.4</v>
       </c>
-      <c r="L48" s="115">
+      <c r="L48" s="111">
         <v>410</v>
       </c>
-      <c r="M48" s="109">
-        <f>N48/2.6</f>
+      <c r="M48" s="3">
+        <f t="shared" si="3"/>
         <v>1.2788461538461537</v>
       </c>
-      <c r="N48" s="109">
+      <c r="N48" s="3">
         <v>3.3249999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="105" t="s">
+      <c r="E49" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="110">
+      <c r="F49" s="106">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G49" s="111">
+      <c r="G49" s="107">
         <v>1.27</v>
       </c>
-      <c r="H49" s="112">
+      <c r="H49" s="108">
         <v>1000</v>
       </c>
-      <c r="I49" s="113">
-        <f>H49*0.1</f>
+      <c r="I49" s="109">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J49" s="114">
+      <c r="J49" s="110">
         <f>0.95*backup!J56</f>
         <v>3.0874999999999999</v>
       </c>
-      <c r="K49" s="111">
+      <c r="K49" s="107">
         <v>0.4</v>
       </c>
-      <c r="L49" s="115">
+      <c r="L49" s="111">
         <v>165</v>
       </c>
-      <c r="M49" s="109">
-        <f>N49/2.6</f>
+      <c r="M49" s="3">
+        <f t="shared" si="3"/>
         <v>1.1875</v>
       </c>
-      <c r="N49" s="109">
+      <c r="N49" s="3">
         <v>3.0874999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="105" t="s">
+      <c r="E50" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="106">
+      <c r="F50" s="74">
         <v>0.25</v>
       </c>
-      <c r="G50" s="107">
+      <c r="G50" s="104">
         <v>1.35</v>
       </c>
       <c r="H50" s="18">
         <v>600</v>
       </c>
       <c r="I50" s="78">
-        <f>H50*0.1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="J50" s="77">
         <v>3.8</v>
       </c>
-      <c r="K50" s="107">
+      <c r="K50" s="104">
         <v>0.4</v>
       </c>
-      <c r="L50" s="108">
+      <c r="L50" s="105">
         <v>1230</v>
       </c>
-      <c r="M50" s="109">
-        <f>N50/2.6</f>
+      <c r="M50" s="3">
+        <f t="shared" si="3"/>
         <v>1.4615384615384615</v>
       </c>
-      <c r="N50" s="109">
+      <c r="N50" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="105" t="s">
+      <c r="E51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="106">
+      <c r="F51" s="74">
         <v>0.35</v>
       </c>
-      <c r="G51" s="107">
+      <c r="G51" s="104">
         <v>1.28</v>
       </c>
       <c r="H51" s="18">
         <v>800</v>
       </c>
       <c r="I51" s="78">
-        <f>H51*0.1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J51" s="77">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K51" s="107">
+      <c r="K51" s="104">
         <v>0.4</v>
       </c>
-      <c r="L51" s="108">
+      <c r="L51" s="105">
         <v>410</v>
       </c>
-      <c r="M51" s="109">
-        <f>N51/2.6</f>
+      <c r="M51" s="3">
+        <f t="shared" si="3"/>
         <v>1.2788461538461537</v>
       </c>
-      <c r="N51" s="109">
+      <c r="N51" s="3">
         <v>3.3249999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="105" t="s">
+      <c r="E52" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="106">
+      <c r="F52" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G52" s="107">
+      <c r="G52" s="104">
         <v>1.21</v>
       </c>
       <c r="H52" s="18">
         <v>1000</v>
       </c>
       <c r="I52" s="78">
-        <f>H52*0.1</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J52" s="77">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K52" s="107">
+      <c r="K52" s="104">
         <v>0.4</v>
       </c>
-      <c r="L52" s="108">
+      <c r="L52" s="105">
         <v>165</v>
       </c>
-      <c r="M52" s="109">
-        <f>N52/2.6</f>
+      <c r="M52" s="3">
+        <f t="shared" si="3"/>
         <v>1.1875</v>
       </c>
-      <c r="N52" s="109">
+      <c r="N52" s="3">
         <v>3.0874999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="104" t="s">
+      <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="110">
+      <c r="F54" s="106">
         <v>0.25</v>
       </c>
-      <c r="G54" s="111">
+      <c r="G54" s="107">
         <v>1.41</v>
       </c>
-      <c r="H54" s="112">
+      <c r="H54" s="108">
         <v>0</v>
       </c>
-      <c r="I54" s="113">
-        <f>H54*0.1</f>
+      <c r="I54" s="109">
+        <f t="shared" ref="I54:I59" si="4">H54*0.1</f>
         <v>0</v>
       </c>
-      <c r="J54" s="114">
+      <c r="J54" s="110">
         <v>4</v>
       </c>
-      <c r="K54" s="111">
+      <c r="K54" s="107">
         <v>0.4</v>
       </c>
-      <c r="L54" s="115">
+      <c r="L54" s="111">
         <v>1230</v>
       </c>
-      <c r="M54" s="109">
-        <f>N54/2.6</f>
+      <c r="M54" s="3">
+        <f t="shared" ref="M54:M59" si="5">N54/2.6</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="N54" s="109">
+      <c r="N54" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="104" t="s">
+      <c r="D55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="105" t="s">
+      <c r="E55" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="110">
+      <c r="F55" s="106">
         <v>0.35</v>
       </c>
-      <c r="G55" s="111">
+      <c r="G55" s="107">
         <v>1.34</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="108">
         <v>900</v>
       </c>
-      <c r="I55" s="113">
-        <f>H55*0.1</f>
+      <c r="I55" s="109">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="J55" s="114">
+      <c r="J55" s="110">
         <v>3.5</v>
       </c>
-      <c r="K55" s="111">
+      <c r="K55" s="107">
         <v>0.4</v>
       </c>
-      <c r="L55" s="115">
+      <c r="L55" s="111">
         <v>410</v>
       </c>
-      <c r="M55" s="109">
-        <f>N55/2.6</f>
+      <c r="M55" s="3">
+        <f t="shared" si="5"/>
         <v>1.346153846153846</v>
       </c>
-      <c r="N55" s="109">
+      <c r="N55" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="104" t="s">
+      <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="105" t="s">
+      <c r="E56" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="110">
+      <c r="F56" s="106">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G56" s="111">
+      <c r="G56" s="107">
         <v>1.27</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="108">
         <v>1000</v>
       </c>
-      <c r="I56" s="113">
-        <f>H56*0.1</f>
+      <c r="I56" s="109">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J56" s="114">
+      <c r="J56" s="110">
         <v>3.25</v>
       </c>
-      <c r="K56" s="111">
+      <c r="K56" s="107">
         <v>0.4</v>
       </c>
-      <c r="L56" s="115">
+      <c r="L56" s="111">
         <v>165</v>
       </c>
-      <c r="M56" s="109">
-        <f>N56/2.6</f>
+      <c r="M56" s="3">
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="N56" s="109">
+      <c r="N56" s="3">
         <v>3.25</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="105" t="s">
+      <c r="E57" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="110">
+      <c r="F57" s="106">
         <v>0.25</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="107">
         <v>1.35</v>
       </c>
-      <c r="H57" s="112">
+      <c r="H57" s="108">
         <v>700</v>
       </c>
-      <c r="I57" s="113">
-        <f>H57*0.1</f>
+      <c r="I57" s="109">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="J57" s="114">
+      <c r="J57" s="110">
         <v>4</v>
       </c>
-      <c r="K57" s="111">
+      <c r="K57" s="107">
         <v>0.4</v>
       </c>
-      <c r="L57" s="115">
+      <c r="L57" s="111">
         <v>1230</v>
       </c>
-      <c r="M57" s="109">
-        <f>N57/2.6</f>
+      <c r="M57" s="3">
+        <f t="shared" si="5"/>
         <v>1.5384615384615383</v>
       </c>
-      <c r="N57" s="109">
+      <c r="N57" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="105" t="s">
+      <c r="E58" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="106">
+      <c r="F58" s="74">
         <v>0.35</v>
       </c>
-      <c r="G58" s="107">
+      <c r="G58" s="104">
         <v>1.28</v>
       </c>
       <c r="H58" s="18">
         <v>900</v>
       </c>
       <c r="I58" s="78">
-        <f>H58*0.1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="J58" s="77">
         <v>3.5</v>
       </c>
-      <c r="K58" s="107">
+      <c r="K58" s="104">
         <v>0.4</v>
       </c>
-      <c r="L58" s="108">
+      <c r="L58" s="105">
         <v>410</v>
       </c>
-      <c r="M58" s="109">
-        <f>N58/2.6</f>
+      <c r="M58" s="3">
+        <f t="shared" si="5"/>
         <v>1.346153846153846</v>
       </c>
-      <c r="N58" s="109">
+      <c r="N58" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="105" t="s">
+      <c r="E59" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="106">
+      <c r="F59" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G59" s="107">
+      <c r="G59" s="104">
         <v>1.21</v>
       </c>
       <c r="H59" s="18">
         <v>1000</v>
       </c>
       <c r="I59" s="78">
-        <f>H59*0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="J59" s="77">
         <v>3.25</v>
       </c>
-      <c r="K59" s="107">
+      <c r="K59" s="104">
         <v>0.4</v>
       </c>
-      <c r="L59" s="108">
+      <c r="L59" s="105">
         <v>165</v>
       </c>
-      <c r="M59" s="109">
-        <f>N59/2.6</f>
+      <c r="M59" s="3">
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="N59" s="109">
+      <c r="N59" s="3">
         <v>3.25</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="104" t="s">
+      <c r="D61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="105" t="s">
+      <c r="E61" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="116">
+      <c r="F61" s="112">
         <v>0.15</v>
       </c>
-      <c r="G61" s="111">
+      <c r="G61" s="107">
         <v>1.41</v>
       </c>
-      <c r="H61" s="112">
+      <c r="H61" s="108">
         <v>0</v>
       </c>
-      <c r="I61" s="113">
+      <c r="I61" s="109">
         <v>0</v>
       </c>
-      <c r="J61" s="114">
+      <c r="J61" s="110">
         <v>3.61</v>
       </c>
-      <c r="K61" s="111">
+      <c r="K61" s="107">
         <v>0.4</v>
       </c>
-      <c r="L61" s="115">
+      <c r="L61" s="111">
         <v>1230</v>
       </c>
-      <c r="M61" s="109">
-        <f>N61/2.6</f>
+      <c r="M61" s="3">
+        <f t="shared" ref="M61:M66" si="6">N61/2.6</f>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N61" s="109">
+      <c r="N61" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="104" t="s">
+      <c r="B62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="104" t="s">
+      <c r="D62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="105" t="s">
+      <c r="E62" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="116">
+      <c r="F62" s="112">
         <v>0.25</v>
       </c>
-      <c r="G62" s="111">
+      <c r="G62" s="107">
         <v>1.34</v>
       </c>
-      <c r="H62" s="112">
+      <c r="H62" s="108">
         <v>750</v>
       </c>
-      <c r="I62" s="113">
+      <c r="I62" s="109">
         <v>75</v>
       </c>
-      <c r="J62" s="114">
+      <c r="J62" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K62" s="111">
+      <c r="K62" s="107">
         <v>0.4</v>
       </c>
-      <c r="L62" s="115">
+      <c r="L62" s="111">
         <v>410</v>
       </c>
-      <c r="M62" s="109">
-        <f>N62/2.6</f>
+      <c r="M62" s="3">
+        <f t="shared" si="6"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N62" s="109">
+      <c r="N62" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="104" t="s">
+      <c r="D63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="105" t="s">
+      <c r="E63" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="116">
+      <c r="F63" s="112">
         <v>0.35</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="107">
         <v>1.27</v>
       </c>
-      <c r="H63" s="112">
+      <c r="H63" s="108">
         <v>1000</v>
       </c>
-      <c r="I63" s="113">
+      <c r="I63" s="109">
         <v>100</v>
       </c>
-      <c r="J63" s="114">
+      <c r="J63" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K63" s="111">
+      <c r="K63" s="107">
         <v>0.4</v>
       </c>
-      <c r="L63" s="115">
+      <c r="L63" s="111">
         <v>165</v>
       </c>
-      <c r="M63" s="109">
-        <f>N63/2.6</f>
+      <c r="M63" s="3">
+        <f t="shared" si="6"/>
         <v>1.128125</v>
       </c>
-      <c r="N63" s="109">
+      <c r="N63" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="105" t="s">
+      <c r="E64" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="116">
+      <c r="F64" s="112">
         <v>0.15</v>
       </c>
-      <c r="G64" s="111">
+      <c r="G64" s="107">
         <v>1.35</v>
       </c>
-      <c r="H64" s="112">
+      <c r="H64" s="108">
         <v>500</v>
       </c>
-      <c r="I64" s="113">
+      <c r="I64" s="109">
         <v>50</v>
       </c>
-      <c r="J64" s="114">
+      <c r="J64" s="110">
         <v>3.61</v>
       </c>
-      <c r="K64" s="111">
+      <c r="K64" s="107">
         <v>0.4</v>
       </c>
-      <c r="L64" s="115">
+      <c r="L64" s="111">
         <v>1230</v>
       </c>
-      <c r="M64" s="109">
-        <f>N64/2.6</f>
+      <c r="M64" s="3">
+        <f t="shared" si="6"/>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N64" s="109">
+      <c r="N64" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="D65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="105" t="s">
+      <c r="E65" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="116">
+      <c r="F65" s="112">
         <v>0.25</v>
       </c>
-      <c r="G65" s="111">
+      <c r="G65" s="107">
         <v>1.28</v>
       </c>
-      <c r="H65" s="112">
+      <c r="H65" s="108">
         <v>750</v>
       </c>
-      <c r="I65" s="113">
+      <c r="I65" s="109">
         <v>75</v>
       </c>
-      <c r="J65" s="114">
+      <c r="J65" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K65" s="111">
+      <c r="K65" s="107">
         <v>0.4</v>
       </c>
-      <c r="L65" s="115">
+      <c r="L65" s="111">
         <v>410</v>
       </c>
-      <c r="M65" s="109">
-        <f>N65/2.6</f>
+      <c r="M65" s="3">
+        <f t="shared" si="6"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N65" s="109">
+      <c r="N65" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="105" t="s">
+      <c r="E66" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="116">
+      <c r="F66" s="112">
         <v>0.35</v>
       </c>
-      <c r="G66" s="111">
+      <c r="G66" s="107">
         <v>1.21</v>
       </c>
-      <c r="H66" s="112">
+      <c r="H66" s="108">
         <v>1000</v>
       </c>
-      <c r="I66" s="113">
+      <c r="I66" s="109">
         <v>100</v>
       </c>
-      <c r="J66" s="114">
+      <c r="J66" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K66" s="111">
+      <c r="K66" s="107">
         <v>0.4</v>
       </c>
-      <c r="L66" s="115">
+      <c r="L66" s="111">
         <v>165</v>
       </c>
-      <c r="M66" s="109">
-        <f>N66/2.6</f>
+      <c r="M66" s="3">
+        <f t="shared" si="6"/>
         <v>1.128125</v>
       </c>
-      <c r="N66" s="109">
+      <c r="N66" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="105" t="s">
+      <c r="E68" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="116">
+      <c r="F68" s="112">
         <v>0.15</v>
       </c>
-      <c r="G68" s="111">
+      <c r="G68" s="107">
         <v>1.41</v>
       </c>
-      <c r="H68" s="112">
+      <c r="H68" s="108">
         <v>0</v>
       </c>
-      <c r="I68" s="113">
+      <c r="I68" s="109">
         <v>0</v>
       </c>
-      <c r="J68" s="114">
+      <c r="J68" s="110">
         <v>3.61</v>
       </c>
-      <c r="K68" s="111">
+      <c r="K68" s="107">
         <v>0.4</v>
       </c>
-      <c r="L68" s="115">
+      <c r="L68" s="111">
         <v>1230</v>
       </c>
-      <c r="M68" s="109">
-        <f>N68/2.6</f>
+      <c r="M68" s="3">
+        <f t="shared" ref="M68:M91" si="7">N68/2.6</f>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N68" s="109">
+      <c r="N68" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="104" t="s">
+      <c r="D69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="105" t="s">
+      <c r="E69" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="116">
+      <c r="F69" s="112">
         <v>0.25</v>
       </c>
-      <c r="G69" s="111">
+      <c r="G69" s="107">
         <v>1.34</v>
       </c>
-      <c r="H69" s="112">
+      <c r="H69" s="108">
         <v>750</v>
       </c>
-      <c r="I69" s="113">
+      <c r="I69" s="109">
         <v>75</v>
       </c>
-      <c r="J69" s="114">
+      <c r="J69" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K69" s="111">
+      <c r="K69" s="107">
         <v>0.4</v>
       </c>
-      <c r="L69" s="115">
+      <c r="L69" s="111">
         <v>410</v>
       </c>
-      <c r="M69" s="109">
-        <f>N69/2.6</f>
+      <c r="M69" s="3">
+        <f t="shared" si="7"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N69" s="109">
+      <c r="N69" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="104" t="s">
+      <c r="D70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="105" t="s">
+      <c r="E70" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="116">
+      <c r="F70" s="112">
         <v>0.35</v>
       </c>
-      <c r="G70" s="111">
+      <c r="G70" s="107">
         <v>1.27</v>
       </c>
-      <c r="H70" s="112">
+      <c r="H70" s="108">
         <v>1000</v>
       </c>
-      <c r="I70" s="113">
+      <c r="I70" s="109">
         <v>100</v>
       </c>
-      <c r="J70" s="114">
+      <c r="J70" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K70" s="111">
+      <c r="K70" s="107">
         <v>0.4</v>
       </c>
-      <c r="L70" s="115">
+      <c r="L70" s="111">
         <v>165</v>
       </c>
-      <c r="M70" s="109">
-        <f>N70/2.6</f>
+      <c r="M70" s="3">
+        <f t="shared" si="7"/>
         <v>1.128125</v>
       </c>
-      <c r="N70" s="109">
+      <c r="N70" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="104" t="s">
+      <c r="B71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="104" t="s">
+      <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="105" t="s">
+      <c r="E71" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="116">
+      <c r="F71" s="112">
         <v>0.15</v>
       </c>
-      <c r="G71" s="111">
+      <c r="G71" s="107">
         <v>1.41</v>
       </c>
-      <c r="H71" s="112">
+      <c r="H71" s="108">
         <v>0</v>
       </c>
-      <c r="I71" s="113">
+      <c r="I71" s="109">
         <v>0</v>
       </c>
-      <c r="J71" s="114">
+      <c r="J71" s="110">
         <v>3.8</v>
       </c>
-      <c r="K71" s="111">
+      <c r="K71" s="107">
         <v>0.4</v>
       </c>
-      <c r="L71" s="115">
+      <c r="L71" s="111">
         <v>1230</v>
       </c>
-      <c r="M71" s="109">
-        <f>N71/2.6</f>
+      <c r="M71" s="3">
+        <f t="shared" si="7"/>
         <v>1.4615384615384615</v>
       </c>
-      <c r="N71" s="109">
+      <c r="N71" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="104" t="s">
+      <c r="D72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="105" t="s">
+      <c r="E72" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="116">
+      <c r="F72" s="112">
         <v>0.25</v>
       </c>
-      <c r="G72" s="111">
+      <c r="G72" s="107">
         <v>1.34</v>
       </c>
-      <c r="H72" s="112">
+      <c r="H72" s="108">
         <v>800</v>
       </c>
-      <c r="I72" s="113">
+      <c r="I72" s="109">
         <v>80</v>
       </c>
-      <c r="J72" s="114">
+      <c r="J72" s="110">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K72" s="111">
+      <c r="K72" s="107">
         <v>0.4</v>
       </c>
-      <c r="L72" s="115">
+      <c r="L72" s="111">
         <v>410</v>
       </c>
-      <c r="M72" s="109">
-        <f>N72/2.6</f>
+      <c r="M72" s="3">
+        <f t="shared" si="7"/>
         <v>1.2788461538461537</v>
       </c>
-      <c r="N72" s="109">
+      <c r="N72" s="3">
         <v>3.3249999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="104" t="s">
+      <c r="B73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="104" t="s">
+      <c r="C73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="104" t="s">
+      <c r="D73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="105" t="s">
+      <c r="E73" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="116">
+      <c r="F73" s="112">
         <v>0.35</v>
       </c>
-      <c r="G73" s="111">
+      <c r="G73" s="107">
         <v>1.27</v>
       </c>
-      <c r="H73" s="112">
+      <c r="H73" s="108">
         <v>1000</v>
       </c>
-      <c r="I73" s="113">
+      <c r="I73" s="109">
         <v>100</v>
       </c>
-      <c r="J73" s="114">
+      <c r="J73" s="110">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K73" s="111">
+      <c r="K73" s="107">
         <v>0.4</v>
       </c>
-      <c r="L73" s="115">
+      <c r="L73" s="111">
         <v>165</v>
       </c>
-      <c r="M73" s="109">
-        <f>N73/2.6</f>
+      <c r="M73" s="3">
+        <f t="shared" si="7"/>
         <v>1.1875</v>
       </c>
-      <c r="N73" s="109">
+      <c r="N73" s="3">
         <v>3.0874999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="104" t="s">
+      <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="104" t="s">
+      <c r="D74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="105" t="s">
+      <c r="E74" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="116">
+      <c r="F74" s="112">
         <v>0.15</v>
       </c>
-      <c r="G74" s="111">
+      <c r="G74" s="107">
         <v>1.41</v>
       </c>
-      <c r="H74" s="112">
+      <c r="H74" s="108">
         <v>0</v>
       </c>
-      <c r="I74" s="113">
+      <c r="I74" s="109">
         <v>0</v>
       </c>
-      <c r="J74" s="114">
+      <c r="J74" s="110">
         <v>4</v>
       </c>
-      <c r="K74" s="111">
+      <c r="K74" s="107">
         <v>0.4</v>
       </c>
-      <c r="L74" s="115">
+      <c r="L74" s="111">
         <v>1230</v>
       </c>
-      <c r="M74" s="109">
-        <f>N74/2.6</f>
+      <c r="M74" s="3">
+        <f t="shared" si="7"/>
         <v>1.5384615384615383</v>
       </c>
-      <c r="N74" s="109">
+      <c r="N74" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="104" t="s">
+      <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="104" t="s">
+      <c r="D75" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="105" t="s">
+      <c r="E75" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="116">
+      <c r="F75" s="112">
         <v>0.25</v>
       </c>
-      <c r="G75" s="111">
+      <c r="G75" s="107">
         <v>1.34</v>
       </c>
-      <c r="H75" s="112">
+      <c r="H75" s="108">
         <v>900</v>
       </c>
-      <c r="I75" s="113">
+      <c r="I75" s="109">
         <v>90</v>
       </c>
-      <c r="J75" s="114">
+      <c r="J75" s="110">
         <v>3.5</v>
       </c>
-      <c r="K75" s="111">
+      <c r="K75" s="107">
         <v>0.4</v>
       </c>
-      <c r="L75" s="115">
+      <c r="L75" s="111">
         <v>410</v>
       </c>
-      <c r="M75" s="109">
-        <f>N75/2.6</f>
+      <c r="M75" s="3">
+        <f t="shared" si="7"/>
         <v>1.346153846153846</v>
       </c>
-      <c r="N75" s="109">
+      <c r="N75" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="104" t="s">
+      <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="104" t="s">
+      <c r="D76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="105" t="s">
+      <c r="E76" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="116">
+      <c r="F76" s="112">
         <v>0.35</v>
       </c>
-      <c r="G76" s="111">
+      <c r="G76" s="107">
         <v>1.27</v>
       </c>
-      <c r="H76" s="112">
+      <c r="H76" s="108">
         <v>1000</v>
       </c>
-      <c r="I76" s="113">
+      <c r="I76" s="109">
         <v>100</v>
       </c>
-      <c r="J76" s="114">
+      <c r="J76" s="110">
         <v>3.25</v>
       </c>
-      <c r="K76" s="111">
+      <c r="K76" s="107">
         <v>0.4</v>
       </c>
-      <c r="L76" s="115">
+      <c r="L76" s="111">
         <v>165</v>
       </c>
-      <c r="M76" s="109">
-        <f>N76/2.6</f>
+      <c r="M76" s="3">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="N76" s="109">
+      <c r="N76" s="3">
         <v>3.25</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="104" t="s">
+      <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="104" t="s">
+      <c r="D77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="105" t="s">
+      <c r="E77" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="116">
+      <c r="F77" s="112">
         <v>0.15</v>
       </c>
-      <c r="G77" s="111">
+      <c r="G77" s="107">
         <v>1.41</v>
       </c>
-      <c r="H77" s="112">
+      <c r="H77" s="108">
         <v>0</v>
       </c>
-      <c r="I77" s="113">
+      <c r="I77" s="109">
         <v>0</v>
       </c>
-      <c r="J77" s="114">
+      <c r="J77" s="110">
         <v>3.61</v>
       </c>
-      <c r="K77" s="111">
+      <c r="K77" s="107">
         <v>0.4</v>
       </c>
-      <c r="L77" s="115">
+      <c r="L77" s="111">
         <v>1230</v>
       </c>
-      <c r="M77" s="109">
-        <f>N77/2.6</f>
+      <c r="M77" s="3">
+        <f t="shared" si="7"/>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N77" s="109">
+      <c r="N77" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="104" t="s">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="104" t="s">
+      <c r="B78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="104" t="s">
+      <c r="C78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="104" t="s">
+      <c r="D78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="105" t="s">
+      <c r="E78" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="116">
+      <c r="F78" s="112">
         <v>0.25</v>
       </c>
-      <c r="G78" s="111">
+      <c r="G78" s="107">
         <v>1.34</v>
       </c>
-      <c r="H78" s="112">
+      <c r="H78" s="108">
         <v>750</v>
       </c>
-      <c r="I78" s="113">
+      <c r="I78" s="109">
         <v>75</v>
       </c>
-      <c r="J78" s="114">
+      <c r="J78" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K78" s="111">
+      <c r="K78" s="107">
         <v>0.4</v>
       </c>
-      <c r="L78" s="115">
+      <c r="L78" s="111">
         <v>410</v>
       </c>
-      <c r="M78" s="109">
-        <f>N78/2.6</f>
+      <c r="M78" s="3">
+        <f t="shared" si="7"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N78" s="109">
+      <c r="N78" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="104" t="s">
+      <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="104" t="s">
+      <c r="B79" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="104" t="s">
+      <c r="C79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="104" t="s">
+      <c r="D79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="105" t="s">
+      <c r="E79" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="116">
+      <c r="F79" s="112">
         <v>0.35</v>
       </c>
-      <c r="G79" s="111">
+      <c r="G79" s="107">
         <v>1.27</v>
       </c>
-      <c r="H79" s="112">
+      <c r="H79" s="108">
         <v>1000</v>
       </c>
-      <c r="I79" s="113">
+      <c r="I79" s="109">
         <v>100</v>
       </c>
-      <c r="J79" s="114">
+      <c r="J79" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K79" s="111">
+      <c r="K79" s="107">
         <v>0.4</v>
       </c>
-      <c r="L79" s="115">
+      <c r="L79" s="111">
         <v>165</v>
       </c>
-      <c r="M79" s="109">
-        <f>N79/2.6</f>
+      <c r="M79" s="3">
+        <f t="shared" si="7"/>
         <v>1.128125</v>
       </c>
-      <c r="N79" s="109">
+      <c r="N79" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="104" t="s">
+      <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="104" t="s">
+      <c r="D80" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="105" t="s">
+      <c r="E80" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="116">
+      <c r="F80" s="112">
         <v>0.25</v>
       </c>
-      <c r="G80" s="111">
+      <c r="G80" s="107">
         <v>1.35</v>
       </c>
-      <c r="H80" s="112">
+      <c r="H80" s="108">
         <v>500</v>
       </c>
-      <c r="I80" s="113">
-        <f>H80*0.1</f>
+      <c r="I80" s="109">
+        <f t="shared" ref="I80:I88" si="8">H80*0.1</f>
         <v>50</v>
       </c>
-      <c r="J80" s="114">
+      <c r="J80" s="110">
         <v>3.61</v>
       </c>
-      <c r="K80" s="111">
+      <c r="K80" s="107">
         <v>0.4</v>
       </c>
-      <c r="L80" s="115">
+      <c r="L80" s="111">
         <v>1230</v>
       </c>
-      <c r="M80" s="109">
-        <f>N80/2.6</f>
+      <c r="M80" s="3">
+        <f t="shared" si="7"/>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N80" s="109">
+      <c r="N80" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="104" t="s">
+      <c r="B81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="104" t="s">
+      <c r="D81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E81" s="105" t="s">
+      <c r="E81" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="116">
+      <c r="F81" s="112">
         <v>0.35</v>
       </c>
-      <c r="G81" s="111">
+      <c r="G81" s="107">
         <v>1.28</v>
       </c>
-      <c r="H81" s="112">
+      <c r="H81" s="108">
         <v>750</v>
       </c>
-      <c r="I81" s="113">
-        <f>H81*0.1</f>
+      <c r="I81" s="109">
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="J81" s="114">
+      <c r="J81" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K81" s="111">
+      <c r="K81" s="107">
         <v>0.4</v>
       </c>
-      <c r="L81" s="115">
+      <c r="L81" s="111">
         <v>410</v>
       </c>
-      <c r="M81" s="109">
-        <f>N81/2.6</f>
+      <c r="M81" s="3">
+        <f t="shared" si="7"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N81" s="109">
+      <c r="N81" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="104" t="s">
+      <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="104" t="s">
+      <c r="B82" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="104" t="s">
+      <c r="D82" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E82" s="105" t="s">
+      <c r="E82" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="116">
+      <c r="F82" s="112">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G82" s="111">
+      <c r="G82" s="107">
         <v>1.21</v>
       </c>
-      <c r="H82" s="112">
+      <c r="H82" s="108">
         <v>1000</v>
       </c>
-      <c r="I82" s="113">
-        <f>H82*0.1</f>
+      <c r="I82" s="109">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J82" s="114">
+      <c r="J82" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K82" s="111">
+      <c r="K82" s="107">
         <v>0.4</v>
       </c>
-      <c r="L82" s="115">
+      <c r="L82" s="111">
         <v>165</v>
       </c>
-      <c r="M82" s="109">
-        <f>N82/2.6</f>
+      <c r="M82" s="3">
+        <f t="shared" si="7"/>
         <v>1.128125</v>
       </c>
-      <c r="N82" s="109">
+      <c r="N82" s="3">
         <v>2.933125</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="104" t="s">
+      <c r="B83" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="104" t="s">
+      <c r="C83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="104" t="s">
+      <c r="D83" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="105" t="s">
+      <c r="E83" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="110">
+      <c r="F83" s="106">
         <v>0.25</v>
       </c>
-      <c r="G83" s="111">
+      <c r="G83" s="107">
         <v>1.35</v>
       </c>
-      <c r="H83" s="112">
+      <c r="H83" s="108">
         <v>600</v>
       </c>
-      <c r="I83" s="113">
-        <f>H83*0.1</f>
+      <c r="I83" s="109">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J83" s="114">
+      <c r="J83" s="110">
         <v>3.8</v>
       </c>
-      <c r="K83" s="111">
+      <c r="K83" s="107">
         <v>0.4</v>
       </c>
-      <c r="L83" s="115">
+      <c r="L83" s="111">
         <v>1230</v>
       </c>
-      <c r="M83" s="109">
-        <f>N83/2.6</f>
+      <c r="M83" s="3">
+        <f t="shared" si="7"/>
         <v>1.4615384615384615</v>
       </c>
-      <c r="N83" s="109">
+      <c r="N83" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="104" t="s">
+      <c r="B84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="104" t="s">
+      <c r="C84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="104" t="s">
+      <c r="D84" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="105" t="s">
+      <c r="E84" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="110">
+      <c r="F84" s="106">
         <v>0.35</v>
       </c>
-      <c r="G84" s="111">
+      <c r="G84" s="107">
         <v>1.28</v>
       </c>
-      <c r="H84" s="112">
+      <c r="H84" s="108">
         <v>800</v>
       </c>
-      <c r="I84" s="113">
-        <f>H84*0.1</f>
+      <c r="I84" s="109">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="J84" s="114">
+      <c r="J84" s="110">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K84" s="111">
+      <c r="K84" s="107">
         <v>0.4</v>
       </c>
-      <c r="L84" s="115">
+      <c r="L84" s="111">
         <v>410</v>
       </c>
-      <c r="M84" s="109">
-        <f>N84/2.6</f>
+      <c r="M84" s="3">
+        <f t="shared" si="7"/>
         <v>1.2788461538461537</v>
       </c>
-      <c r="N84" s="109">
+      <c r="N84" s="3">
         <v>3.3249999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="104" t="s">
+      <c r="C85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="104" t="s">
+      <c r="D85" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="105" t="s">
+      <c r="E85" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="110">
+      <c r="F85" s="106">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G85" s="111">
+      <c r="G85" s="107">
         <v>1.21</v>
       </c>
-      <c r="H85" s="112">
+      <c r="H85" s="108">
         <v>1000</v>
       </c>
-      <c r="I85" s="113">
-        <f>H85*0.1</f>
+      <c r="I85" s="109">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J85" s="114">
+      <c r="J85" s="110">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K85" s="111">
+      <c r="K85" s="107">
         <v>0.4</v>
       </c>
-      <c r="L85" s="115">
+      <c r="L85" s="111">
         <v>165</v>
       </c>
-      <c r="M85" s="109">
-        <f>N85/2.6</f>
+      <c r="M85" s="3">
+        <f t="shared" si="7"/>
         <v>1.1875</v>
       </c>
-      <c r="N85" s="109">
+      <c r="N85" s="3">
         <v>3.0874999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="104" t="s">
+      <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="104" t="s">
+      <c r="C86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="104" t="s">
+      <c r="D86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E86" s="105" t="s">
+      <c r="E86" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="110">
+      <c r="F86" s="106">
         <v>0.25</v>
       </c>
-      <c r="G86" s="111">
+      <c r="G86" s="107">
         <v>1.35</v>
       </c>
-      <c r="H86" s="112">
+      <c r="H86" s="108">
         <v>700</v>
       </c>
-      <c r="I86" s="113">
-        <f>H86*0.1</f>
+      <c r="I86" s="109">
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="J86" s="114">
+      <c r="J86" s="110">
         <v>4</v>
       </c>
-      <c r="K86" s="111">
+      <c r="K86" s="107">
         <v>0.4</v>
       </c>
-      <c r="L86" s="115">
+      <c r="L86" s="111">
         <v>1230</v>
       </c>
-      <c r="M86" s="109">
-        <f>N86/2.6</f>
+      <c r="M86" s="3">
+        <f t="shared" si="7"/>
         <v>1.5384615384615383</v>
       </c>
-      <c r="N86" s="109">
+      <c r="N86" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="104" t="s">
+      <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="104" t="s">
+      <c r="B87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="104" t="s">
+      <c r="C87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="104" t="s">
+      <c r="D87" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E87" s="105" t="s">
+      <c r="E87" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="110">
+      <c r="F87" s="106">
         <v>0.35</v>
       </c>
-      <c r="G87" s="111">
+      <c r="G87" s="107">
         <v>1.28</v>
       </c>
-      <c r="H87" s="112">
+      <c r="H87" s="108">
         <v>900</v>
       </c>
-      <c r="I87" s="113">
-        <f>H87*0.1</f>
+      <c r="I87" s="109">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="J87" s="114">
+      <c r="J87" s="110">
         <v>3.5</v>
       </c>
-      <c r="K87" s="111">
+      <c r="K87" s="107">
         <v>0.4</v>
       </c>
-      <c r="L87" s="115">
+      <c r="L87" s="111">
         <v>410</v>
       </c>
-      <c r="M87" s="109">
-        <f>N87/2.6</f>
+      <c r="M87" s="3">
+        <f t="shared" si="7"/>
         <v>1.346153846153846</v>
       </c>
-      <c r="N87" s="109">
+      <c r="N87" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="104" t="s">
+      <c r="B88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="104" t="s">
+      <c r="D88" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E88" s="105" t="s">
+      <c r="E88" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="110">
+      <c r="F88" s="106">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G88" s="111">
+      <c r="G88" s="107">
         <v>1.21</v>
       </c>
-      <c r="H88" s="112">
+      <c r="H88" s="108">
         <v>1000</v>
       </c>
-      <c r="I88" s="113">
-        <f>H88*0.1</f>
+      <c r="I88" s="109">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J88" s="114">
+      <c r="J88" s="110">
         <v>3.25</v>
       </c>
-      <c r="K88" s="111">
+      <c r="K88" s="107">
         <v>0.4</v>
       </c>
-      <c r="L88" s="115">
+      <c r="L88" s="111">
         <v>165</v>
       </c>
-      <c r="M88" s="109">
-        <f>N88/2.6</f>
+      <c r="M88" s="3">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="N88" s="109">
+      <c r="N88" s="3">
         <v>3.25</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="104" t="s">
+      <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="104" t="s">
+      <c r="B89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="104" t="s">
+      <c r="C89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="104" t="s">
+      <c r="D89" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E89" s="105" t="s">
+      <c r="E89" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="116">
+      <c r="F89" s="112">
         <v>0.15</v>
       </c>
-      <c r="G89" s="111">
+      <c r="G89" s="107">
         <v>1.35</v>
       </c>
-      <c r="H89" s="112">
+      <c r="H89" s="108">
         <v>500</v>
       </c>
-      <c r="I89" s="113">
+      <c r="I89" s="109">
         <v>50</v>
       </c>
-      <c r="J89" s="114">
+      <c r="J89" s="110">
         <v>3.61</v>
       </c>
-      <c r="K89" s="111">
+      <c r="K89" s="107">
         <v>0.4</v>
       </c>
-      <c r="L89" s="115">
+      <c r="L89" s="111">
         <v>1230</v>
       </c>
-      <c r="M89" s="109">
-        <f>N89/2.6</f>
+      <c r="M89" s="3">
+        <f t="shared" si="7"/>
         <v>1.3884615384615384</v>
       </c>
-      <c r="N89" s="109">
+      <c r="N89" s="3">
         <v>3.61</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="104" t="s">
+      <c r="C90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="104" t="s">
+      <c r="D90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="105" t="s">
+      <c r="E90" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="116">
+      <c r="F90" s="112">
         <v>0.25</v>
       </c>
-      <c r="G90" s="111">
+      <c r="G90" s="107">
         <v>1.28</v>
       </c>
-      <c r="H90" s="112">
+      <c r="H90" s="108">
         <v>750</v>
       </c>
-      <c r="I90" s="113">
+      <c r="I90" s="109">
         <v>75</v>
       </c>
-      <c r="J90" s="114">
+      <c r="J90" s="110">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K90" s="111">
+      <c r="K90" s="107">
         <v>0.4</v>
       </c>
-      <c r="L90" s="115">
+      <c r="L90" s="111">
         <v>410</v>
       </c>
-      <c r="M90" s="109">
-        <f>N90/2.6</f>
+      <c r="M90" s="3">
+        <f t="shared" si="7"/>
         <v>1.2149038461538459</v>
       </c>
-      <c r="N90" s="109">
+      <c r="N90" s="3">
         <v>3.1587499999999995</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="104" t="s">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="104" t="s">
+      <c r="D91" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="105" t="s">
+      <c r="E91" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="116">
+      <c r="F91" s="112">
         <v>0.35</v>
       </c>
-      <c r="G91" s="111">
+      <c r="G91" s="107">
         <v>1.21</v>
       </c>
-      <c r="H91" s="112">
+      <c r="H91" s="108">
         <v>1000</v>
       </c>
-      <c r="I91" s="113">
+      <c r="I91" s="109">
         <v>100</v>
       </c>
-      <c r="J91" s="114">
+      <c r="J91" s="110">
         <v>2.933125</v>
       </c>
-      <c r="K91" s="111">
+      <c r="K91" s="107">
         <v>0.4</v>
       </c>
-      <c r="L91" s="115">
+      <c r="L91" s="111">
         <v>165</v>
       </c>
-      <c r="M91" s="109">
-        <f>N91/2.6</f>
+      <c r="M91" s="3">
+        <f t="shared" si="7"/>
         <v>1.128125</v>
       </c>
-      <c r="N91" s="109">
+      <c r="N91" s="3">
         <v>2.933125</v>
       </c>
     </row>

--- a/cooking_energy.xlsx
+++ b/cooking_energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/Library/CloudStorage/GoogleDrive-bikash@vasudhaindia.org/My Drive/01-cooking/01-analysis-files/cooking-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8CAD1-0E29-9743-8130-3D3699253916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83CB97-8C52-E149-A877-39BDF5D292D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E40E22CB-8837-485E-9211-3FB4E597DAEA}"/>
   </bookViews>
@@ -666,7 +666,26 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">w/out storage
-Solar Panel: 2-3 kWp
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Solar Panel: 2-3 kWp
 </t>
         </r>
         <r>
@@ -911,15 +930,61 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check the emission factor</t>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Check the emission factor</t>
         </r>
       </text>
     </comment>
@@ -4539,7 +4604,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4657,6 +4722,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4879,7 +4950,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5071,9 +5142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5542,7 +5610,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9B9BD97-3B75-6A48-94C3-0941384692C7}" name="Table1" displayName="Table1" ref="A1:N81" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N81" xr:uid="{A9B9BD97-3B75-6A48-94C3-0941384692C7}"/>
+  <autoFilter ref="A1:N81" xr:uid="{A9B9BD97-3B75-6A48-94C3-0941384692C7}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Traditional cook stove (TCS)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{8DEE4B54-B590-3B42-AB05-CD5BB52AA8FB}" name="Fuel type" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{F0DAACE5-5871-F446-808D-3A9028D14E92}" name="Area" dataDxfId="12"/>
@@ -11547,8 +11621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A84533-C657-4214-823E-030F0B5790EA}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11613,7 +11687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="79" t="s">
         <v>101</v>
       </c>
@@ -11636,11 +11710,11 @@
         <v>5</v>
       </c>
       <c r="H2" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J2" s="56">
         <v>3.9000000000000004</v>
@@ -11658,7 +11732,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
         <v>101</v>
       </c>
@@ -11675,17 +11749,17 @@
         <v>17</v>
       </c>
       <c r="F3" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="56">
         <v>5</v>
       </c>
       <c r="H3" s="18">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I3" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J3" s="56">
         <v>2.6</v>
@@ -11703,7 +11777,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="79" t="s">
         <v>108</v>
       </c>
@@ -11748,7 +11822,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
         <v>108</v>
       </c>
@@ -11771,11 +11845,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="I5" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J5" s="56">
         <v>2.6</v>
@@ -11793,7 +11867,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>101</v>
       </c>
@@ -11810,7 +11884,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="56">
         <v>6</v>
@@ -11838,7 +11912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="79" t="s">
         <v>101</v>
       </c>
@@ -11855,7 +11929,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="56">
         <v>6</v>
@@ -11883,7 +11957,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
         <v>108</v>
       </c>
@@ -11900,17 +11974,17 @@
         <v>18</v>
       </c>
       <c r="F8" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="56">
         <v>0</v>
       </c>
       <c r="H8" s="18">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="I8" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J8" s="56">
         <v>4</v>
@@ -11928,7 +12002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="79" t="s">
         <v>108</v>
       </c>
@@ -11945,17 +12019,17 @@
         <v>18</v>
       </c>
       <c r="F9" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="56">
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="I9" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="J9" s="56">
         <v>2.7</v>
@@ -11973,7 +12047,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="79" t="s">
         <v>101</v>
       </c>
@@ -11990,17 +12064,17 @@
         <v>19</v>
       </c>
       <c r="F10" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="56">
         <v>7</v>
       </c>
       <c r="H10" s="18">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I10" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J10" s="56">
         <v>4.0999999999999996</v>
@@ -12018,7 +12092,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="79" t="s">
         <v>101</v>
       </c>
@@ -12035,17 +12109,17 @@
         <v>19</v>
       </c>
       <c r="F11" s="74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="56">
         <v>7</v>
       </c>
       <c r="H11" s="18">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="I11" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J11" s="56">
         <v>2.8</v>
@@ -12063,7 +12137,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="79" t="s">
         <v>108</v>
       </c>
@@ -12080,17 +12154,17 @@
         <v>19</v>
       </c>
       <c r="F12" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="56">
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="I12" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="J12" s="56">
         <v>4.0999999999999996</v>
@@ -12108,7 +12182,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
         <v>108</v>
       </c>
@@ -12125,7 +12199,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="56">
         <v>0</v>
@@ -12153,7 +12227,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>101</v>
       </c>
@@ -12176,11 +12250,11 @@
         <v>6</v>
       </c>
       <c r="H14" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J14" s="56">
         <v>3.9000000000000004</v>
@@ -12198,7 +12272,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="79" t="s">
         <v>101</v>
       </c>
@@ -12215,17 +12289,17 @@
         <v>17</v>
       </c>
       <c r="F15" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="56">
         <v>6</v>
       </c>
       <c r="H15" s="18">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J15" s="56">
         <v>2.6</v>
@@ -12243,7 +12317,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>108</v>
       </c>
@@ -12287,7 +12361,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="79" t="s">
         <v>108</v>
       </c>
@@ -12310,11 +12384,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="I17" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J17" s="56">
         <v>2.6</v>
@@ -12332,7 +12406,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="79" t="s">
         <v>101</v>
       </c>
@@ -12349,7 +12423,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G18" s="56">
         <v>7</v>
@@ -12377,7 +12451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="79" t="s">
         <v>101</v>
       </c>
@@ -12394,7 +12468,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="74">
-        <v>0.95000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="G19" s="56">
         <v>7</v>
@@ -12422,7 +12496,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="79" t="s">
         <v>108</v>
       </c>
@@ -12439,13 +12513,13 @@
         <v>18</v>
       </c>
       <c r="F20" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="56">
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="I20" s="78">
         <v>400</v>
@@ -12466,7 +12540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="79" t="s">
         <v>108</v>
       </c>
@@ -12483,17 +12557,17 @@
         <v>18</v>
       </c>
       <c r="F21" s="74">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="56">
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="I21" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="J21" s="56">
         <v>2.7</v>
@@ -12511,7 +12585,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
         <v>101</v>
       </c>
@@ -12528,17 +12602,17 @@
         <v>19</v>
       </c>
       <c r="F22" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="56">
         <v>8</v>
       </c>
       <c r="H22" s="18">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="56">
         <v>4.0999999999999996</v>
@@ -12556,7 +12630,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="79" t="s">
         <v>101</v>
       </c>
@@ -12573,17 +12647,17 @@
         <v>19</v>
       </c>
       <c r="F23" s="74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="56">
         <v>8</v>
       </c>
       <c r="H23" s="18">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="I23" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J23" s="56">
         <v>2.8</v>
@@ -12601,7 +12675,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="79" t="s">
         <v>108</v>
       </c>
@@ -12618,13 +12692,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="56">
         <v>0</v>
       </c>
       <c r="H24" s="18">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="I24" s="78">
         <v>800</v>
@@ -12645,7 +12719,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="79" t="s">
         <v>108</v>
       </c>
@@ -12662,7 +12736,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="74">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G25" s="56">
         <v>0</v>
@@ -12690,7 +12764,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="79" t="s">
         <v>92</v>
       </c>
@@ -12707,20 +12781,20 @@
         <v>17</v>
       </c>
       <c r="F26" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="56">
         <v>1.5</v>
       </c>
       <c r="H26" s="18">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="78">
-        <f t="shared" ref="I26:I37" si="0">H26*0.1</f>
-        <v>4000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J26" s="77">
-        <f t="shared" ref="J26:J28" si="1">J30*0.95</f>
+        <f t="shared" ref="J26:J28" si="0">J30*0.95</f>
         <v>2.7074999999999996</v>
       </c>
       <c r="K26" s="76">
@@ -12730,14 +12804,14 @@
         <v>60</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" ref="M26:M37" si="2">N26/2.6</f>
+        <f t="shared" ref="M26:M37" si="1">N26/2.6</f>
         <v>1.0413461538461537</v>
       </c>
       <c r="N26" s="80">
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
         <v>95</v>
       </c>
@@ -12760,14 +12834,14 @@
         <v>6.38</v>
       </c>
       <c r="H27" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I27" s="78">
+        <f t="shared" ref="I27:I37" si="2">H27*0.1</f>
+        <v>150</v>
+      </c>
+      <c r="J27" s="77">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J27" s="77">
-        <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K27" s="56">
@@ -12777,14 +12851,14 @@
         <v>64</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N27" s="80">
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="79" t="s">
         <v>99</v>
       </c>
@@ -12807,14 +12881,14 @@
         <v>5.86</v>
       </c>
       <c r="H28" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="78">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J28" s="77">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="J28" s="77">
-        <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K28" s="56">
@@ -12825,14 +12899,14 @@
         <v>47</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N28" s="80">
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="79" t="s">
         <v>95</v>
       </c>
@@ -12855,11 +12929,11 @@
         <v>6.38</v>
       </c>
       <c r="H29" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I29" s="78">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="J29" s="56">
         <f>0.95*J33</f>
@@ -12873,14 +12947,14 @@
         <v>64</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0413461538461537</v>
       </c>
       <c r="N29" s="80">
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="79" t="s">
         <v>92</v>
       </c>
@@ -12897,7 +12971,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G30" s="56">
         <v>1.5</v>
@@ -12906,8 +12980,8 @@
         <v>50000</v>
       </c>
       <c r="I30" s="78">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J30" s="77">
         <f t="shared" ref="J30:J32" si="3">0.95*J34</f>
@@ -12920,14 +12994,14 @@
         <v>60</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N30" s="80">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="79" t="s">
         <v>95</v>
       </c>
@@ -12944,7 +13018,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="74">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G31" s="56">
         <v>6.38</v>
@@ -12953,7 +13027,7 @@
         <v>1500</v>
       </c>
       <c r="I31" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="J31" s="77">
@@ -12967,14 +13041,14 @@
         <v>64</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N31" s="80">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="79" t="s">
         <v>99</v>
       </c>
@@ -12991,7 +13065,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="74">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G32" s="56">
         <v>5.86</v>
@@ -13000,7 +13074,7 @@
         <v>2000</v>
       </c>
       <c r="I32" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="J32" s="77">
@@ -13014,14 +13088,14 @@
         <v>47</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N32" s="80">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="79" t="s">
         <v>95</v>
       </c>
@@ -13038,7 +13112,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="74">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G33" s="56">
         <v>6.38</v>
@@ -13047,7 +13121,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="J33" s="56">
@@ -13061,14 +13135,14 @@
         <v>64</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.096153846153846</v>
       </c>
       <c r="N33" s="80">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="79" t="s">
         <v>92</v>
       </c>
@@ -13085,17 +13159,17 @@
         <v>19</v>
       </c>
       <c r="F34" s="74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G34" s="56">
         <v>1.5</v>
       </c>
       <c r="H34" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="78">
-        <f t="shared" si="0"/>
-        <v>6000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J34" s="56">
         <v>3</v>
@@ -13107,14 +13181,14 @@
         <v>60</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N34" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="79" t="s">
         <v>95</v>
       </c>
@@ -13131,17 +13205,17 @@
         <v>19</v>
       </c>
       <c r="F35" s="74">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G35" s="56">
         <v>6.38</v>
       </c>
       <c r="H35" s="18">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I35" s="78">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="J35" s="56">
         <v>3</v>
@@ -13153,14 +13227,14 @@
         <v>64</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N35" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="79" t="s">
         <v>99</v>
       </c>
@@ -13177,17 +13251,17 @@
         <v>19</v>
       </c>
       <c r="F36" s="74">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G36" s="56">
         <v>5.86</v>
       </c>
       <c r="H36" s="18">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="78">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="J36" s="56">
         <v>3</v>
@@ -13199,14 +13273,14 @@
         <v>47</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N36" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="79" t="s">
         <v>95</v>
       </c>
@@ -13223,17 +13297,17 @@
         <v>19</v>
       </c>
       <c r="F37" s="74">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G37" s="56">
         <v>6.38</v>
       </c>
       <c r="H37" s="18">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I37" s="78">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="J37" s="56">
         <v>3</v>
@@ -13245,14 +13319,14 @@
         <v>64</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="N37" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="79" t="s">
         <v>101</v>
       </c>
@@ -13275,11 +13349,11 @@
         <v>5</v>
       </c>
       <c r="H38" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I38" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J38" s="56">
         <v>3.9000000000000004</v>
@@ -13297,7 +13371,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="79" t="s">
         <v>101</v>
       </c>
@@ -13314,17 +13388,17 @@
         <v>16</v>
       </c>
       <c r="F39" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G39" s="56">
         <v>5</v>
       </c>
       <c r="H39" s="18">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I39" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J39" s="56">
         <v>2.6</v>
@@ -13342,7 +13416,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="79" t="s">
         <v>108</v>
       </c>
@@ -13386,7 +13460,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79" t="s">
         <v>108</v>
       </c>
@@ -13409,11 +13483,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="I41" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J41" s="56">
         <v>2.6</v>
@@ -13431,7 +13505,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79" t="s">
         <v>101</v>
       </c>
@@ -13454,11 +13528,11 @@
         <v>6</v>
       </c>
       <c r="H42" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J42" s="56">
         <v>3.9000000000000004</v>
@@ -13476,7 +13550,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
         <v>101</v>
       </c>
@@ -13493,17 +13567,17 @@
         <v>16</v>
       </c>
       <c r="F43" s="74">
-        <v>0.90000000000000013</v>
+        <v>0.8</v>
       </c>
       <c r="G43" s="56">
         <v>6</v>
       </c>
       <c r="H43" s="18">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I43" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="56">
         <v>2.6</v>
@@ -13521,7 +13595,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="79" t="s">
         <v>108</v>
       </c>
@@ -13565,7 +13639,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="79" t="s">
         <v>108</v>
       </c>
@@ -13588,11 +13662,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="18">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="I45" s="78">
         <f>Table1[[#This Row],[Capex]]*0.005</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J45" s="56">
         <v>2.6</v>
@@ -13610,7 +13684,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="79" t="s">
         <v>92</v>
       </c>
@@ -13627,16 +13701,17 @@
         <v>16</v>
       </c>
       <c r="F46" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G46" s="56">
         <v>1.5</v>
       </c>
       <c r="H46" s="18">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I46" s="78">
-        <v>4000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J46" s="77">
         <v>2.7074999999999996</v>
@@ -13655,7 +13730,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="79" t="s">
         <v>95</v>
       </c>
@@ -13678,7 +13753,7 @@
         <v>6.38</v>
       </c>
       <c r="H47" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I47" s="78">
         <v>100</v>
@@ -13700,7 +13775,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="79" t="s">
         <v>99</v>
       </c>
@@ -13723,11 +13798,11 @@
         <v>5.86</v>
       </c>
       <c r="H48" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J48" s="77">
         <v>2.7074999999999996</v>
@@ -13746,7 +13821,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="79" t="s">
         <v>95</v>
       </c>
@@ -13769,7 +13844,7 @@
         <v>6.38</v>
       </c>
       <c r="H49" s="18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="78">
         <v>100</v>
@@ -13791,7 +13866,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="79" t="s">
         <v>99</v>
       </c>
@@ -13814,11 +13889,11 @@
         <v>5.86</v>
       </c>
       <c r="H50" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J50" s="77">
         <v>2.7074999999999996</v>
@@ -13837,7 +13912,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="79" t="s">
         <v>99</v>
       </c>
@@ -13854,7 +13929,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="74">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G51" s="56">
         <v>5.86</v>
@@ -13883,7 +13958,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
         <v>99</v>
       </c>
@@ -13900,17 +13975,17 @@
         <v>19</v>
       </c>
       <c r="F52" s="74">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G52" s="56">
         <v>5.86</v>
       </c>
       <c r="H52" s="18">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I52" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J52" s="56">
         <v>3</v>
@@ -13929,7 +14004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="79" t="s">
         <v>99</v>
       </c>
@@ -13952,11 +14027,11 @@
         <v>5.86</v>
       </c>
       <c r="H53" s="18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J53" s="77">
         <v>2.7074999999999996</v>
@@ -13975,7 +14050,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="79" t="s">
         <v>92</v>
       </c>
@@ -13991,21 +14066,21 @@
       <c r="E54" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="75">
-        <v>0.8</v>
+      <c r="F54" s="74">
+        <v>0.6</v>
       </c>
       <c r="G54" s="56">
         <v>1.5</v>
       </c>
       <c r="H54" s="18">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I54" s="78">
-        <f t="shared" ref="I54:I56" si="5">H54*0.1</f>
-        <v>4000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J54" s="77">
-        <f t="shared" ref="J54" si="6">J64*0.95</f>
+        <f t="shared" ref="J54" si="5">J64*0.95</f>
         <v>3.8</v>
       </c>
       <c r="K54" s="76">
@@ -14022,7 +14097,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="79" t="s">
         <v>92</v>
       </c>
@@ -14038,8 +14113,8 @@
       <c r="E55" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="75">
-        <v>0.8</v>
+      <c r="F55" s="74">
+        <v>0.6</v>
       </c>
       <c r="G55" s="56">
         <v>1.5</v>
@@ -14048,11 +14123,11 @@
         <v>50000</v>
       </c>
       <c r="I55" s="78">
-        <f t="shared" si="5"/>
-        <v>5000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J55" s="77">
-        <f t="shared" ref="J55" si="7">0.95*J65</f>
+        <f t="shared" ref="J55" si="6">0.95*J65</f>
         <v>3.3249999999999997</v>
       </c>
       <c r="K55" s="76">
@@ -14069,7 +14144,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="79" t="s">
         <v>92</v>
       </c>
@@ -14085,18 +14160,18 @@
       <c r="E56" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="75">
-        <v>0.8</v>
+      <c r="F56" s="74">
+        <v>0.6</v>
       </c>
       <c r="G56" s="56">
         <v>1.5</v>
       </c>
       <c r="H56" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I56" s="78">
-        <f t="shared" si="5"/>
-        <v>6000</v>
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
       </c>
       <c r="J56" s="56">
         <v>3</v>
@@ -14115,7 +14190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="86" t="s">
         <v>92</v>
       </c>
@@ -14131,32 +14206,33 @@
       <c r="E57" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="89">
-        <v>0.7</v>
-      </c>
-      <c r="G57" s="90">
+      <c r="F57" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G57" s="89">
         <v>1.5</v>
       </c>
-      <c r="H57" s="91">
-        <v>40000</v>
-      </c>
-      <c r="I57" s="92">
-        <v>4000</v>
-      </c>
-      <c r="J57" s="93">
+      <c r="H57" s="18">
+        <v>50000</v>
+      </c>
+      <c r="I57" s="91">
+        <f>Table1[[#This Row],[Capex]]*0.005</f>
+        <v>250</v>
+      </c>
+      <c r="J57" s="92">
         <v>2.7074999999999996</v>
       </c>
-      <c r="K57" s="94">
+      <c r="K57" s="93">
         <v>0.15</v>
       </c>
-      <c r="L57" s="95">
+      <c r="L57" s="94">
         <v>60</v>
       </c>
-      <c r="M57" s="96">
-        <f t="shared" ref="M57" si="8">N57/2.6</f>
+      <c r="M57" s="95">
+        <f t="shared" ref="M57" si="7">N57/2.6</f>
         <v>1.0413461538461537</v>
       </c>
-      <c r="N57" s="97">
+      <c r="N57" s="96">
         <v>2.7074999999999996</v>
       </c>
     </row>
@@ -14177,7 +14253,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="74">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G58" s="56">
         <v>1.41</v>
@@ -14204,7 +14280,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="79" t="s">
         <v>133</v>
       </c>
@@ -14221,17 +14297,17 @@
         <v>17</v>
       </c>
       <c r="F59" s="74">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="G59" s="56">
         <v>1.34</v>
       </c>
       <c r="H59" s="18">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I59" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J59" s="77">
         <v>3.1587499999999995</v>
@@ -14249,7 +14325,7 @@
         <v>3.1587499999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="79" t="s">
         <v>133</v>
       </c>
@@ -14265,32 +14341,32 @@
       <c r="E60" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="98">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G60" s="90">
+      <c r="F60" s="97">
+        <v>0.3</v>
+      </c>
+      <c r="G60" s="89">
         <v>1.27</v>
       </c>
-      <c r="H60" s="91">
-        <v>1500</v>
-      </c>
-      <c r="I60" s="92">
+      <c r="H60" s="90">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="91">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
-      </c>
-      <c r="J60" s="93">
+        <v>200</v>
+      </c>
+      <c r="J60" s="92">
         <v>2.933125</v>
       </c>
-      <c r="K60" s="94">
+      <c r="K60" s="93">
         <v>0.4</v>
       </c>
-      <c r="L60" s="95">
+      <c r="L60" s="94">
         <v>165</v>
       </c>
-      <c r="M60" s="96">
+      <c r="M60" s="95">
         <v>1.128125</v>
       </c>
-      <c r="N60" s="97">
+      <c r="N60" s="96">
         <v>2.933125</v>
       </c>
     </row>
@@ -14311,7 +14387,7 @@
         <v>18</v>
       </c>
       <c r="F61" s="74">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G61" s="56">
         <v>1.41</v>
@@ -14338,7 +14414,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="79" t="s">
         <v>133</v>
       </c>
@@ -14355,7 +14431,7 @@
         <v>18</v>
       </c>
       <c r="F62" s="74">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="G62" s="56">
         <v>1.34</v>
@@ -14383,7 +14459,7 @@
         <v>3.3249999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="79" t="s">
         <v>133</v>
       </c>
@@ -14400,12 +14476,12 @@
         <v>18</v>
       </c>
       <c r="F63" s="74">
-        <v>0.44999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G63" s="56">
         <v>1.27</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="90">
         <v>2000</v>
       </c>
       <c r="I63" s="78">
@@ -14445,7 +14521,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="74">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G64" s="56">
         <v>1.41</v>
@@ -14472,7 +14548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="79" t="s">
         <v>133</v>
       </c>
@@ -14489,17 +14565,17 @@
         <v>19</v>
       </c>
       <c r="F65" s="74">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="G65" s="56">
         <v>1.34</v>
       </c>
       <c r="H65" s="18">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="I65" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J65" s="77">
         <v>3.5</v>
@@ -14517,7 +14593,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="79" t="s">
         <v>133</v>
       </c>
@@ -14534,17 +14610,17 @@
         <v>19</v>
       </c>
       <c r="F66" s="74">
-        <v>0.44999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G66" s="56">
         <v>1.27</v>
       </c>
-      <c r="H66" s="18">
-        <v>2500</v>
+      <c r="H66" s="90">
+        <v>2000</v>
       </c>
       <c r="I66" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J66" s="77">
         <v>3.25</v>
@@ -14606,7 +14682,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="79" t="s">
         <v>133</v>
       </c>
@@ -14623,17 +14699,17 @@
         <v>16</v>
       </c>
       <c r="F68" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G68" s="56">
         <v>1.34</v>
       </c>
       <c r="H68" s="18">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I68" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J68" s="77">
         <v>3.1587499999999995</v>
@@ -14651,7 +14727,7 @@
         <v>3.1587499999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="79" t="s">
         <v>133</v>
       </c>
@@ -14668,17 +14744,17 @@
         <v>16</v>
       </c>
       <c r="F69" s="17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G69" s="56">
         <v>1.27</v>
       </c>
-      <c r="H69" s="18">
-        <v>1500</v>
+      <c r="H69" s="90">
+        <v>2000</v>
       </c>
       <c r="I69" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J69" s="77">
         <v>2.933125</v>
@@ -14740,7 +14816,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="79" t="s">
         <v>133</v>
       </c>
@@ -14757,17 +14833,17 @@
         <v>17</v>
       </c>
       <c r="F71" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G71" s="56">
         <v>1.34</v>
       </c>
       <c r="H71" s="18">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I71" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J71" s="77">
         <v>3.1587499999999995</v>
@@ -14785,7 +14861,7 @@
         <v>3.1587499999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="79" t="s">
         <v>133</v>
       </c>
@@ -14802,17 +14878,17 @@
         <v>17</v>
       </c>
       <c r="F72" s="17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G72" s="56">
         <v>1.27</v>
       </c>
-      <c r="H72" s="18">
-        <v>1500</v>
+      <c r="H72" s="90">
+        <v>2000</v>
       </c>
       <c r="I72" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J72" s="77">
         <v>2.933125</v>
@@ -14874,7 +14950,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79" t="s">
         <v>133</v>
       </c>
@@ -14891,7 +14967,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G74" s="56">
         <v>1.34</v>
@@ -14919,7 +14995,7 @@
         <v>3.3249999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="79" t="s">
         <v>133</v>
       </c>
@@ -14936,12 +15012,12 @@
         <v>18</v>
       </c>
       <c r="F75" s="17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G75" s="56">
         <v>1.27</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="90">
         <v>2000</v>
       </c>
       <c r="I75" s="78">
@@ -15008,7 +15084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79" t="s">
         <v>133</v>
       </c>
@@ -15025,17 +15101,17 @@
         <v>19</v>
       </c>
       <c r="F77" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G77" s="56">
         <v>1.34</v>
       </c>
       <c r="H77" s="18">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="I77" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J77" s="77">
         <v>3.5</v>
@@ -15053,7 +15129,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="79" t="s">
         <v>133</v>
       </c>
@@ -15070,17 +15146,17 @@
         <v>19</v>
       </c>
       <c r="F78" s="17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G78" s="56">
         <v>1.27</v>
       </c>
-      <c r="H78" s="18">
-        <v>2500</v>
+      <c r="H78" s="90">
+        <v>2000</v>
       </c>
       <c r="I78" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J78" s="77">
         <v>3.25</v>
@@ -15142,7 +15218,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="79" t="s">
         <v>133</v>
       </c>
@@ -15159,17 +15235,17 @@
         <v>16</v>
       </c>
       <c r="F80" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G80" s="56">
         <v>1.34</v>
       </c>
       <c r="H80" s="18">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I80" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J80" s="77">
         <v>3.1587499999999995</v>
@@ -15187,7 +15263,7 @@
         <v>3.1587499999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="79" t="s">
         <v>133</v>
       </c>
@@ -15204,17 +15280,17 @@
         <v>16</v>
       </c>
       <c r="F81" s="17">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G81" s="56">
         <v>1.27</v>
       </c>
-      <c r="H81" s="18">
-        <v>1500</v>
+      <c r="H81" s="90">
+        <v>2000</v>
       </c>
       <c r="I81" s="78">
         <f>Table1[[#This Row],[Capex]]*0.1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J81" s="77">
         <v>2.933125</v>
@@ -16279,7 +16355,7 @@
       <c r="F19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="100" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -16291,10 +16367,10 @@
       <c r="J19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="100" t="s">
         <v>79</v>
       </c>
       <c r="M19" s="10" t="s">
@@ -16323,7 +16399,7 @@
       <c r="F20" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="98">
         <v>5</v>
       </c>
       <c r="H20" s="18">
@@ -16332,13 +16408,13 @@
       <c r="I20" s="78">
         <v>100</v>
       </c>
-      <c r="J20" s="99">
+      <c r="J20" s="98">
         <v>3.9</v>
       </c>
-      <c r="K20" s="99">
+      <c r="K20" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L20" s="100">
+      <c r="L20" s="99">
         <v>35</v>
       </c>
       <c r="M20" s="3">
@@ -16367,7 +16443,7 @@
       <c r="F21" s="74">
         <v>0.95000000000000007</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="98">
         <v>6</v>
       </c>
       <c r="H21" s="18">
@@ -16376,13 +16452,13 @@
       <c r="I21" s="78">
         <v>250</v>
       </c>
-      <c r="J21" s="99">
+      <c r="J21" s="98">
         <v>4</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K21" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L21" s="100">
+      <c r="L21" s="99">
         <v>35</v>
       </c>
       <c r="M21" s="3">
@@ -16411,7 +16487,7 @@
       <c r="F22" s="74">
         <v>1</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="98">
         <v>7</v>
       </c>
       <c r="H22" s="18">
@@ -16420,13 +16496,13 @@
       <c r="I22" s="78">
         <v>500</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J22" s="98">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K22" s="99">
+      <c r="K22" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L22" s="100">
+      <c r="L22" s="99">
         <v>35</v>
       </c>
       <c r="M22" s="3">
@@ -16455,7 +16531,7 @@
       <c r="F23" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="98">
         <v>6</v>
       </c>
       <c r="H23" s="18">
@@ -16464,13 +16540,13 @@
       <c r="I23" s="78">
         <v>150</v>
       </c>
-      <c r="J23" s="99">
+      <c r="J23" s="98">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L23" s="100">
+      <c r="L23" s="99">
         <v>35</v>
       </c>
       <c r="M23" s="3">
@@ -16499,7 +16575,7 @@
       <c r="F24" s="74">
         <v>0.95000000000000007</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="98">
         <v>7</v>
       </c>
       <c r="H24" s="18">
@@ -16508,13 +16584,13 @@
       <c r="I24" s="78">
         <v>400</v>
       </c>
-      <c r="J24" s="99">
+      <c r="J24" s="98">
         <v>4</v>
       </c>
-      <c r="K24" s="99">
+      <c r="K24" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L24" s="100">
+      <c r="L24" s="99">
         <v>35</v>
       </c>
       <c r="M24" s="3">
@@ -16543,7 +16619,7 @@
       <c r="F25" s="74">
         <v>1</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="98">
         <v>8</v>
       </c>
       <c r="H25" s="18">
@@ -16552,13 +16628,13 @@
       <c r="I25" s="78">
         <v>800</v>
       </c>
-      <c r="J25" s="99">
+      <c r="J25" s="98">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K25" s="99">
+      <c r="K25" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L25" s="100">
+      <c r="L25" s="99">
         <v>35</v>
       </c>
       <c r="M25" s="3">
@@ -16587,7 +16663,7 @@
       <c r="F26" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="98">
         <v>5</v>
       </c>
       <c r="H26" s="18">
@@ -16596,13 +16672,13 @@
       <c r="I26" s="78">
         <v>100</v>
       </c>
-      <c r="J26" s="99">
+      <c r="J26" s="98">
         <v>3.9</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L26" s="100">
+      <c r="L26" s="99">
         <v>35</v>
       </c>
       <c r="M26" s="3">
@@ -16631,7 +16707,7 @@
       <c r="F27" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="98">
         <v>6</v>
       </c>
       <c r="H27" s="18">
@@ -16640,13 +16716,13 @@
       <c r="I27" s="78">
         <v>150</v>
       </c>
-      <c r="J27" s="99">
+      <c r="J27" s="98">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="98">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L27" s="100">
+      <c r="L27" s="99">
         <v>35</v>
       </c>
       <c r="M27" s="3">
@@ -16675,7 +16751,7 @@
       <c r="F28" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="101">
         <v>0</v>
       </c>
       <c r="H28" s="18">
@@ -16684,13 +16760,13 @@
       <c r="I28" s="78">
         <v>100</v>
       </c>
-      <c r="J28" s="102">
+      <c r="J28" s="101">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K28" s="102">
+      <c r="K28" s="101">
         <v>0</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="102">
         <v>35</v>
       </c>
       <c r="M28" s="3">
@@ -16719,7 +16795,7 @@
       <c r="F29" s="74">
         <v>0.95000000000000007</v>
       </c>
-      <c r="G29" s="102">
+      <c r="G29" s="101">
         <v>0</v>
       </c>
       <c r="H29" s="18">
@@ -16728,13 +16804,13 @@
       <c r="I29" s="78">
         <v>250</v>
       </c>
-      <c r="J29" s="102">
+      <c r="J29" s="101">
         <v>4</v>
       </c>
-      <c r="K29" s="102">
+      <c r="K29" s="101">
         <v>0</v>
       </c>
-      <c r="L29" s="103">
+      <c r="L29" s="102">
         <v>35</v>
       </c>
       <c r="M29" s="3">
@@ -16763,7 +16839,7 @@
       <c r="F30" s="74">
         <v>1</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G30" s="101">
         <v>0</v>
       </c>
       <c r="H30" s="18">
@@ -16772,13 +16848,13 @@
       <c r="I30" s="78">
         <v>500</v>
       </c>
-      <c r="J30" s="102">
+      <c r="J30" s="101">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K30" s="102">
+      <c r="K30" s="101">
         <v>0</v>
       </c>
-      <c r="L30" s="103">
+      <c r="L30" s="102">
         <v>35</v>
       </c>
       <c r="M30" s="3">
@@ -16807,7 +16883,7 @@
       <c r="F31" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G31" s="101">
         <v>0</v>
       </c>
       <c r="H31" s="18">
@@ -16816,13 +16892,13 @@
       <c r="I31" s="78">
         <v>150</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="101">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K31" s="102">
+      <c r="K31" s="101">
         <v>0</v>
       </c>
-      <c r="L31" s="103">
+      <c r="L31" s="102">
         <v>35</v>
       </c>
       <c r="M31" s="3">
@@ -16851,7 +16927,7 @@
       <c r="F32" s="74">
         <v>0.95000000000000007</v>
       </c>
-      <c r="G32" s="102">
+      <c r="G32" s="101">
         <v>0</v>
       </c>
       <c r="H32" s="18">
@@ -16860,13 +16936,13 @@
       <c r="I32" s="78">
         <v>400</v>
       </c>
-      <c r="J32" s="102">
+      <c r="J32" s="101">
         <v>4</v>
       </c>
-      <c r="K32" s="102">
+      <c r="K32" s="101">
         <v>0</v>
       </c>
-      <c r="L32" s="103">
+      <c r="L32" s="102">
         <v>35</v>
       </c>
       <c r="M32" s="3">
@@ -16895,7 +16971,7 @@
       <c r="F33" s="74">
         <v>1</v>
       </c>
-      <c r="G33" s="102">
+      <c r="G33" s="101">
         <v>0</v>
       </c>
       <c r="H33" s="18">
@@ -16904,13 +16980,13 @@
       <c r="I33" s="78">
         <v>800</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="101">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K33" s="101">
         <v>0</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="102">
         <v>35</v>
       </c>
       <c r="M33" s="3">
@@ -16939,7 +17015,7 @@
       <c r="F34" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G34" s="102">
+      <c r="G34" s="101">
         <v>0</v>
       </c>
       <c r="H34" s="18">
@@ -16948,13 +17024,13 @@
       <c r="I34" s="78">
         <v>100</v>
       </c>
-      <c r="J34" s="102">
+      <c r="J34" s="101">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K34" s="102">
+      <c r="K34" s="101">
         <v>0</v>
       </c>
-      <c r="L34" s="103">
+      <c r="L34" s="102">
         <v>35</v>
       </c>
       <c r="M34" s="3">
@@ -16983,7 +17059,7 @@
       <c r="F35" s="74">
         <v>0.90000000000000013</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G35" s="101">
         <v>0</v>
       </c>
       <c r="H35" s="18">
@@ -16992,13 +17068,13 @@
       <c r="I35" s="78">
         <v>150</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="101">
         <v>3.9000000000000004</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="101">
         <v>0</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="102">
         <v>35</v>
       </c>
       <c r="M35" s="3">
@@ -17027,7 +17103,7 @@
       <c r="F39" s="74">
         <v>0.25</v>
       </c>
-      <c r="G39" s="104">
+      <c r="G39" s="103">
         <v>1.41</v>
       </c>
       <c r="H39" s="18">
@@ -17041,10 +17117,10 @@
         <f>backup!J47*0.95</f>
         <v>3.61</v>
       </c>
-      <c r="K39" s="104">
+      <c r="K39" s="103">
         <v>0.4</v>
       </c>
-      <c r="L39" s="105">
+      <c r="L39" s="104">
         <f>1230</f>
         <v>1230</v>
       </c>
@@ -17075,7 +17151,7 @@
       <c r="F40" s="74">
         <v>0.35</v>
       </c>
-      <c r="G40" s="104">
+      <c r="G40" s="103">
         <v>1.34</v>
       </c>
       <c r="H40" s="18">
@@ -17089,10 +17165,10 @@
         <f>backup!J48*0.95</f>
         <v>3.1587499999999995</v>
       </c>
-      <c r="K40" s="104">
+      <c r="K40" s="103">
         <v>0.4</v>
       </c>
-      <c r="L40" s="105">
+      <c r="L40" s="104">
         <f>410</f>
         <v>410</v>
       </c>
@@ -17123,7 +17199,7 @@
       <c r="F41" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G41" s="104">
+      <c r="G41" s="103">
         <v>1.27</v>
       </c>
       <c r="H41" s="18">
@@ -17137,10 +17213,10 @@
         <f>backup!J49*0.95</f>
         <v>2.933125</v>
       </c>
-      <c r="K41" s="104">
+      <c r="K41" s="103">
         <v>0.4</v>
       </c>
-      <c r="L41" s="105">
+      <c r="L41" s="104">
         <f>165</f>
         <v>165</v>
       </c>
@@ -17171,7 +17247,7 @@
       <c r="F42" s="74">
         <v>0.25</v>
       </c>
-      <c r="G42" s="104">
+      <c r="G42" s="103">
         <v>1.35</v>
       </c>
       <c r="H42" s="18">
@@ -17184,10 +17260,10 @@
       <c r="J42" s="77">
         <v>3.61</v>
       </c>
-      <c r="K42" s="104">
+      <c r="K42" s="103">
         <v>0.4</v>
       </c>
-      <c r="L42" s="105">
+      <c r="L42" s="104">
         <v>1230</v>
       </c>
       <c r="M42" s="3">
@@ -17217,7 +17293,7 @@
       <c r="F43" s="74">
         <v>0.35</v>
       </c>
-      <c r="G43" s="104">
+      <c r="G43" s="103">
         <v>1.28</v>
       </c>
       <c r="H43" s="18">
@@ -17230,10 +17306,10 @@
       <c r="J43" s="77">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K43" s="104">
+      <c r="K43" s="103">
         <v>0.4</v>
       </c>
-      <c r="L43" s="105">
+      <c r="L43" s="104">
         <v>410</v>
       </c>
       <c r="M43" s="3">
@@ -17263,7 +17339,7 @@
       <c r="F44" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G44" s="104">
+      <c r="G44" s="103">
         <v>1.21</v>
       </c>
       <c r="H44" s="18">
@@ -17276,10 +17352,10 @@
       <c r="J44" s="77">
         <v>2.933125</v>
       </c>
-      <c r="K44" s="104">
+      <c r="K44" s="103">
         <v>0.4</v>
       </c>
-      <c r="L44" s="105">
+      <c r="L44" s="104">
         <v>165</v>
       </c>
       <c r="M44" s="3">
@@ -17306,27 +17382,27 @@
       <c r="E47" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="106">
+      <c r="F47" s="105">
         <v>0.25</v>
       </c>
-      <c r="G47" s="107">
+      <c r="G47" s="106">
         <v>1.41</v>
       </c>
-      <c r="H47" s="108">
+      <c r="H47" s="107">
         <v>0</v>
       </c>
-      <c r="I47" s="109">
+      <c r="I47" s="108">
         <f t="shared" ref="I47:I52" si="2">H47*0.1</f>
         <v>0</v>
       </c>
-      <c r="J47" s="110">
+      <c r="J47" s="109">
         <f>0.95*backup!J54</f>
         <v>3.8</v>
       </c>
-      <c r="K47" s="107">
+      <c r="K47" s="106">
         <v>0.4</v>
       </c>
-      <c r="L47" s="111">
+      <c r="L47" s="110">
         <v>1230</v>
       </c>
       <c r="M47" s="3">
@@ -17353,27 +17429,27 @@
       <c r="E48" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="106">
+      <c r="F48" s="105">
         <v>0.35</v>
       </c>
-      <c r="G48" s="107">
+      <c r="G48" s="106">
         <v>1.34</v>
       </c>
-      <c r="H48" s="108">
+      <c r="H48" s="107">
         <v>800</v>
       </c>
-      <c r="I48" s="109">
+      <c r="I48" s="108">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J48" s="110">
+      <c r="J48" s="109">
         <f>0.95*backup!J55</f>
         <v>3.3249999999999997</v>
       </c>
-      <c r="K48" s="107">
+      <c r="K48" s="106">
         <v>0.4</v>
       </c>
-      <c r="L48" s="111">
+      <c r="L48" s="110">
         <v>410</v>
       </c>
       <c r="M48" s="3">
@@ -17400,27 +17476,27 @@
       <c r="E49" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="106">
+      <c r="F49" s="105">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G49" s="107">
+      <c r="G49" s="106">
         <v>1.27</v>
       </c>
-      <c r="H49" s="108">
+      <c r="H49" s="107">
         <v>1000</v>
       </c>
-      <c r="I49" s="109">
+      <c r="I49" s="108">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J49" s="110">
+      <c r="J49" s="109">
         <f>0.95*backup!J56</f>
         <v>3.0874999999999999</v>
       </c>
-      <c r="K49" s="107">
+      <c r="K49" s="106">
         <v>0.4</v>
       </c>
-      <c r="L49" s="111">
+      <c r="L49" s="110">
         <v>165</v>
       </c>
       <c r="M49" s="3">
@@ -17450,7 +17526,7 @@
       <c r="F50" s="74">
         <v>0.25</v>
       </c>
-      <c r="G50" s="104">
+      <c r="G50" s="103">
         <v>1.35</v>
       </c>
       <c r="H50" s="18">
@@ -17463,10 +17539,10 @@
       <c r="J50" s="77">
         <v>3.8</v>
       </c>
-      <c r="K50" s="104">
+      <c r="K50" s="103">
         <v>0.4</v>
       </c>
-      <c r="L50" s="105">
+      <c r="L50" s="104">
         <v>1230</v>
       </c>
       <c r="M50" s="3">
@@ -17496,7 +17572,7 @@
       <c r="F51" s="74">
         <v>0.35</v>
       </c>
-      <c r="G51" s="104">
+      <c r="G51" s="103">
         <v>1.28</v>
       </c>
       <c r="H51" s="18">
@@ -17509,10 +17585,10 @@
       <c r="J51" s="77">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K51" s="104">
+      <c r="K51" s="103">
         <v>0.4</v>
       </c>
-      <c r="L51" s="105">
+      <c r="L51" s="104">
         <v>410</v>
       </c>
       <c r="M51" s="3">
@@ -17542,7 +17618,7 @@
       <c r="F52" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G52" s="104">
+      <c r="G52" s="103">
         <v>1.21</v>
       </c>
       <c r="H52" s="18">
@@ -17555,10 +17631,10 @@
       <c r="J52" s="77">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K52" s="104">
+      <c r="K52" s="103">
         <v>0.4</v>
       </c>
-      <c r="L52" s="105">
+      <c r="L52" s="104">
         <v>165</v>
       </c>
       <c r="M52" s="3">
@@ -17585,26 +17661,26 @@
       <c r="E54" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="106">
+      <c r="F54" s="105">
         <v>0.25</v>
       </c>
-      <c r="G54" s="107">
+      <c r="G54" s="106">
         <v>1.41</v>
       </c>
-      <c r="H54" s="108">
+      <c r="H54" s="107">
         <v>0</v>
       </c>
-      <c r="I54" s="109">
+      <c r="I54" s="108">
         <f t="shared" ref="I54:I59" si="4">H54*0.1</f>
         <v>0</v>
       </c>
-      <c r="J54" s="110">
+      <c r="J54" s="109">
         <v>4</v>
       </c>
-      <c r="K54" s="107">
+      <c r="K54" s="106">
         <v>0.4</v>
       </c>
-      <c r="L54" s="111">
+      <c r="L54" s="110">
         <v>1230</v>
       </c>
       <c r="M54" s="3">
@@ -17631,26 +17707,26 @@
       <c r="E55" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="106">
+      <c r="F55" s="105">
         <v>0.35</v>
       </c>
-      <c r="G55" s="107">
+      <c r="G55" s="106">
         <v>1.34</v>
       </c>
-      <c r="H55" s="108">
+      <c r="H55" s="107">
         <v>900</v>
       </c>
-      <c r="I55" s="109">
+      <c r="I55" s="108">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="J55" s="110">
+      <c r="J55" s="109">
         <v>3.5</v>
       </c>
-      <c r="K55" s="107">
+      <c r="K55" s="106">
         <v>0.4</v>
       </c>
-      <c r="L55" s="111">
+      <c r="L55" s="110">
         <v>410</v>
       </c>
       <c r="M55" s="3">
@@ -17677,26 +17753,26 @@
       <c r="E56" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="106">
+      <c r="F56" s="105">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G56" s="107">
+      <c r="G56" s="106">
         <v>1.27</v>
       </c>
-      <c r="H56" s="108">
+      <c r="H56" s="107">
         <v>1000</v>
       </c>
-      <c r="I56" s="109">
+      <c r="I56" s="108">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J56" s="110">
+      <c r="J56" s="109">
         <v>3.25</v>
       </c>
-      <c r="K56" s="107">
+      <c r="K56" s="106">
         <v>0.4</v>
       </c>
-      <c r="L56" s="111">
+      <c r="L56" s="110">
         <v>165</v>
       </c>
       <c r="M56" s="3">
@@ -17723,26 +17799,26 @@
       <c r="E57" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="106">
+      <c r="F57" s="105">
         <v>0.25</v>
       </c>
-      <c r="G57" s="107">
+      <c r="G57" s="106">
         <v>1.35</v>
       </c>
-      <c r="H57" s="108">
+      <c r="H57" s="107">
         <v>700</v>
       </c>
-      <c r="I57" s="109">
+      <c r="I57" s="108">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="J57" s="110">
+      <c r="J57" s="109">
         <v>4</v>
       </c>
-      <c r="K57" s="107">
+      <c r="K57" s="106">
         <v>0.4</v>
       </c>
-      <c r="L57" s="111">
+      <c r="L57" s="110">
         <v>1230</v>
       </c>
       <c r="M57" s="3">
@@ -17772,7 +17848,7 @@
       <c r="F58" s="74">
         <v>0.35</v>
       </c>
-      <c r="G58" s="104">
+      <c r="G58" s="103">
         <v>1.28</v>
       </c>
       <c r="H58" s="18">
@@ -17785,10 +17861,10 @@
       <c r="J58" s="77">
         <v>3.5</v>
       </c>
-      <c r="K58" s="104">
+      <c r="K58" s="103">
         <v>0.4</v>
       </c>
-      <c r="L58" s="105">
+      <c r="L58" s="104">
         <v>410</v>
       </c>
       <c r="M58" s="3">
@@ -17818,7 +17894,7 @@
       <c r="F59" s="74">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G59" s="104">
+      <c r="G59" s="103">
         <v>1.21</v>
       </c>
       <c r="H59" s="18">
@@ -17831,10 +17907,10 @@
       <c r="J59" s="77">
         <v>3.25</v>
       </c>
-      <c r="K59" s="104">
+      <c r="K59" s="103">
         <v>0.4</v>
       </c>
-      <c r="L59" s="105">
+      <c r="L59" s="104">
         <v>165</v>
       </c>
       <c r="M59" s="3">
@@ -17861,25 +17937,25 @@
       <c r="E61" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="112">
+      <c r="F61" s="111">
         <v>0.15</v>
       </c>
-      <c r="G61" s="107">
+      <c r="G61" s="106">
         <v>1.41</v>
       </c>
-      <c r="H61" s="108">
+      <c r="H61" s="107">
         <v>0</v>
       </c>
-      <c r="I61" s="109">
+      <c r="I61" s="108">
         <v>0</v>
       </c>
-      <c r="J61" s="110">
+      <c r="J61" s="109">
         <v>3.61</v>
       </c>
-      <c r="K61" s="107">
+      <c r="K61" s="106">
         <v>0.4</v>
       </c>
-      <c r="L61" s="111">
+      <c r="L61" s="110">
         <v>1230</v>
       </c>
       <c r="M61" s="3">
@@ -17906,25 +17982,25 @@
       <c r="E62" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="112">
+      <c r="F62" s="111">
         <v>0.25</v>
       </c>
-      <c r="G62" s="107">
+      <c r="G62" s="106">
         <v>1.34</v>
       </c>
-      <c r="H62" s="108">
+      <c r="H62" s="107">
         <v>750</v>
       </c>
-      <c r="I62" s="109">
+      <c r="I62" s="108">
         <v>75</v>
       </c>
-      <c r="J62" s="110">
+      <c r="J62" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K62" s="107">
+      <c r="K62" s="106">
         <v>0.4</v>
       </c>
-      <c r="L62" s="111">
+      <c r="L62" s="110">
         <v>410</v>
       </c>
       <c r="M62" s="3">
@@ -17951,25 +18027,25 @@
       <c r="E63" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="112">
+      <c r="F63" s="111">
         <v>0.35</v>
       </c>
-      <c r="G63" s="107">
+      <c r="G63" s="106">
         <v>1.27</v>
       </c>
-      <c r="H63" s="108">
+      <c r="H63" s="107">
         <v>1000</v>
       </c>
-      <c r="I63" s="109">
+      <c r="I63" s="108">
         <v>100</v>
       </c>
-      <c r="J63" s="110">
+      <c r="J63" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K63" s="107">
+      <c r="K63" s="106">
         <v>0.4</v>
       </c>
-      <c r="L63" s="111">
+      <c r="L63" s="110">
         <v>165</v>
       </c>
       <c r="M63" s="3">
@@ -17996,25 +18072,25 @@
       <c r="E64" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="112">
+      <c r="F64" s="111">
         <v>0.15</v>
       </c>
-      <c r="G64" s="107">
+      <c r="G64" s="106">
         <v>1.35</v>
       </c>
-      <c r="H64" s="108">
+      <c r="H64" s="107">
         <v>500</v>
       </c>
-      <c r="I64" s="109">
+      <c r="I64" s="108">
         <v>50</v>
       </c>
-      <c r="J64" s="110">
+      <c r="J64" s="109">
         <v>3.61</v>
       </c>
-      <c r="K64" s="107">
+      <c r="K64" s="106">
         <v>0.4</v>
       </c>
-      <c r="L64" s="111">
+      <c r="L64" s="110">
         <v>1230</v>
       </c>
       <c r="M64" s="3">
@@ -18041,25 +18117,25 @@
       <c r="E65" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="112">
+      <c r="F65" s="111">
         <v>0.25</v>
       </c>
-      <c r="G65" s="107">
+      <c r="G65" s="106">
         <v>1.28</v>
       </c>
-      <c r="H65" s="108">
+      <c r="H65" s="107">
         <v>750</v>
       </c>
-      <c r="I65" s="109">
+      <c r="I65" s="108">
         <v>75</v>
       </c>
-      <c r="J65" s="110">
+      <c r="J65" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K65" s="107">
+      <c r="K65" s="106">
         <v>0.4</v>
       </c>
-      <c r="L65" s="111">
+      <c r="L65" s="110">
         <v>410</v>
       </c>
       <c r="M65" s="3">
@@ -18086,25 +18162,25 @@
       <c r="E66" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="112">
+      <c r="F66" s="111">
         <v>0.35</v>
       </c>
-      <c r="G66" s="107">
+      <c r="G66" s="106">
         <v>1.21</v>
       </c>
-      <c r="H66" s="108">
+      <c r="H66" s="107">
         <v>1000</v>
       </c>
-      <c r="I66" s="109">
+      <c r="I66" s="108">
         <v>100</v>
       </c>
-      <c r="J66" s="110">
+      <c r="J66" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K66" s="107">
+      <c r="K66" s="106">
         <v>0.4</v>
       </c>
-      <c r="L66" s="111">
+      <c r="L66" s="110">
         <v>165</v>
       </c>
       <c r="M66" s="3">
@@ -18131,25 +18207,25 @@
       <c r="E68" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="112">
+      <c r="F68" s="111">
         <v>0.15</v>
       </c>
-      <c r="G68" s="107">
+      <c r="G68" s="106">
         <v>1.41</v>
       </c>
-      <c r="H68" s="108">
+      <c r="H68" s="107">
         <v>0</v>
       </c>
-      <c r="I68" s="109">
+      <c r="I68" s="108">
         <v>0</v>
       </c>
-      <c r="J68" s="110">
+      <c r="J68" s="109">
         <v>3.61</v>
       </c>
-      <c r="K68" s="107">
+      <c r="K68" s="106">
         <v>0.4</v>
       </c>
-      <c r="L68" s="111">
+      <c r="L68" s="110">
         <v>1230</v>
       </c>
       <c r="M68" s="3">
@@ -18176,25 +18252,25 @@
       <c r="E69" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="112">
+      <c r="F69" s="111">
         <v>0.25</v>
       </c>
-      <c r="G69" s="107">
+      <c r="G69" s="106">
         <v>1.34</v>
       </c>
-      <c r="H69" s="108">
+      <c r="H69" s="107">
         <v>750</v>
       </c>
-      <c r="I69" s="109">
+      <c r="I69" s="108">
         <v>75</v>
       </c>
-      <c r="J69" s="110">
+      <c r="J69" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K69" s="107">
+      <c r="K69" s="106">
         <v>0.4</v>
       </c>
-      <c r="L69" s="111">
+      <c r="L69" s="110">
         <v>410</v>
       </c>
       <c r="M69" s="3">
@@ -18221,25 +18297,25 @@
       <c r="E70" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="112">
+      <c r="F70" s="111">
         <v>0.35</v>
       </c>
-      <c r="G70" s="107">
+      <c r="G70" s="106">
         <v>1.27</v>
       </c>
-      <c r="H70" s="108">
+      <c r="H70" s="107">
         <v>1000</v>
       </c>
-      <c r="I70" s="109">
+      <c r="I70" s="108">
         <v>100</v>
       </c>
-      <c r="J70" s="110">
+      <c r="J70" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K70" s="107">
+      <c r="K70" s="106">
         <v>0.4</v>
       </c>
-      <c r="L70" s="111">
+      <c r="L70" s="110">
         <v>165</v>
       </c>
       <c r="M70" s="3">
@@ -18266,25 +18342,25 @@
       <c r="E71" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="112">
+      <c r="F71" s="111">
         <v>0.15</v>
       </c>
-      <c r="G71" s="107">
+      <c r="G71" s="106">
         <v>1.41</v>
       </c>
-      <c r="H71" s="108">
+      <c r="H71" s="107">
         <v>0</v>
       </c>
-      <c r="I71" s="109">
+      <c r="I71" s="108">
         <v>0</v>
       </c>
-      <c r="J71" s="110">
+      <c r="J71" s="109">
         <v>3.8</v>
       </c>
-      <c r="K71" s="107">
+      <c r="K71" s="106">
         <v>0.4</v>
       </c>
-      <c r="L71" s="111">
+      <c r="L71" s="110">
         <v>1230</v>
       </c>
       <c r="M71" s="3">
@@ -18311,25 +18387,25 @@
       <c r="E72" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="112">
+      <c r="F72" s="111">
         <v>0.25</v>
       </c>
-      <c r="G72" s="107">
+      <c r="G72" s="106">
         <v>1.34</v>
       </c>
-      <c r="H72" s="108">
+      <c r="H72" s="107">
         <v>800</v>
       </c>
-      <c r="I72" s="109">
+      <c r="I72" s="108">
         <v>80</v>
       </c>
-      <c r="J72" s="110">
+      <c r="J72" s="109">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K72" s="107">
+      <c r="K72" s="106">
         <v>0.4</v>
       </c>
-      <c r="L72" s="111">
+      <c r="L72" s="110">
         <v>410</v>
       </c>
       <c r="M72" s="3">
@@ -18356,25 +18432,25 @@
       <c r="E73" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="112">
+      <c r="F73" s="111">
         <v>0.35</v>
       </c>
-      <c r="G73" s="107">
+      <c r="G73" s="106">
         <v>1.27</v>
       </c>
-      <c r="H73" s="108">
+      <c r="H73" s="107">
         <v>1000</v>
       </c>
-      <c r="I73" s="109">
+      <c r="I73" s="108">
         <v>100</v>
       </c>
-      <c r="J73" s="110">
+      <c r="J73" s="109">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K73" s="107">
+      <c r="K73" s="106">
         <v>0.4</v>
       </c>
-      <c r="L73" s="111">
+      <c r="L73" s="110">
         <v>165</v>
       </c>
       <c r="M73" s="3">
@@ -18401,25 +18477,25 @@
       <c r="E74" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="112">
+      <c r="F74" s="111">
         <v>0.15</v>
       </c>
-      <c r="G74" s="107">
+      <c r="G74" s="106">
         <v>1.41</v>
       </c>
-      <c r="H74" s="108">
+      <c r="H74" s="107">
         <v>0</v>
       </c>
-      <c r="I74" s="109">
+      <c r="I74" s="108">
         <v>0</v>
       </c>
-      <c r="J74" s="110">
+      <c r="J74" s="109">
         <v>4</v>
       </c>
-      <c r="K74" s="107">
+      <c r="K74" s="106">
         <v>0.4</v>
       </c>
-      <c r="L74" s="111">
+      <c r="L74" s="110">
         <v>1230</v>
       </c>
       <c r="M74" s="3">
@@ -18446,25 +18522,25 @@
       <c r="E75" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="112">
+      <c r="F75" s="111">
         <v>0.25</v>
       </c>
-      <c r="G75" s="107">
+      <c r="G75" s="106">
         <v>1.34</v>
       </c>
-      <c r="H75" s="108">
+      <c r="H75" s="107">
         <v>900</v>
       </c>
-      <c r="I75" s="109">
+      <c r="I75" s="108">
         <v>90</v>
       </c>
-      <c r="J75" s="110">
+      <c r="J75" s="109">
         <v>3.5</v>
       </c>
-      <c r="K75" s="107">
+      <c r="K75" s="106">
         <v>0.4</v>
       </c>
-      <c r="L75" s="111">
+      <c r="L75" s="110">
         <v>410</v>
       </c>
       <c r="M75" s="3">
@@ -18491,25 +18567,25 @@
       <c r="E76" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="112">
+      <c r="F76" s="111">
         <v>0.35</v>
       </c>
-      <c r="G76" s="107">
+      <c r="G76" s="106">
         <v>1.27</v>
       </c>
-      <c r="H76" s="108">
+      <c r="H76" s="107">
         <v>1000</v>
       </c>
-      <c r="I76" s="109">
+      <c r="I76" s="108">
         <v>100</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="109">
         <v>3.25</v>
       </c>
-      <c r="K76" s="107">
+      <c r="K76" s="106">
         <v>0.4</v>
       </c>
-      <c r="L76" s="111">
+      <c r="L76" s="110">
         <v>165</v>
       </c>
       <c r="M76" s="3">
@@ -18536,25 +18612,25 @@
       <c r="E77" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="112">
+      <c r="F77" s="111">
         <v>0.15</v>
       </c>
-      <c r="G77" s="107">
+      <c r="G77" s="106">
         <v>1.41</v>
       </c>
-      <c r="H77" s="108">
+      <c r="H77" s="107">
         <v>0</v>
       </c>
-      <c r="I77" s="109">
+      <c r="I77" s="108">
         <v>0</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="109">
         <v>3.61</v>
       </c>
-      <c r="K77" s="107">
+      <c r="K77" s="106">
         <v>0.4</v>
       </c>
-      <c r="L77" s="111">
+      <c r="L77" s="110">
         <v>1230</v>
       </c>
       <c r="M77" s="3">
@@ -18581,25 +18657,25 @@
       <c r="E78" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="112">
+      <c r="F78" s="111">
         <v>0.25</v>
       </c>
-      <c r="G78" s="107">
+      <c r="G78" s="106">
         <v>1.34</v>
       </c>
-      <c r="H78" s="108">
+      <c r="H78" s="107">
         <v>750</v>
       </c>
-      <c r="I78" s="109">
+      <c r="I78" s="108">
         <v>75</v>
       </c>
-      <c r="J78" s="110">
+      <c r="J78" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K78" s="107">
+      <c r="K78" s="106">
         <v>0.4</v>
       </c>
-      <c r="L78" s="111">
+      <c r="L78" s="110">
         <v>410</v>
       </c>
       <c r="M78" s="3">
@@ -18626,25 +18702,25 @@
       <c r="E79" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="112">
+      <c r="F79" s="111">
         <v>0.35</v>
       </c>
-      <c r="G79" s="107">
+      <c r="G79" s="106">
         <v>1.27</v>
       </c>
-      <c r="H79" s="108">
+      <c r="H79" s="107">
         <v>1000</v>
       </c>
-      <c r="I79" s="109">
+      <c r="I79" s="108">
         <v>100</v>
       </c>
-      <c r="J79" s="110">
+      <c r="J79" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K79" s="107">
+      <c r="K79" s="106">
         <v>0.4</v>
       </c>
-      <c r="L79" s="111">
+      <c r="L79" s="110">
         <v>165</v>
       </c>
       <c r="M79" s="3">
@@ -18671,26 +18747,26 @@
       <c r="E80" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="112">
+      <c r="F80" s="111">
         <v>0.25</v>
       </c>
-      <c r="G80" s="107">
+      <c r="G80" s="106">
         <v>1.35</v>
       </c>
-      <c r="H80" s="108">
+      <c r="H80" s="107">
         <v>500</v>
       </c>
-      <c r="I80" s="109">
+      <c r="I80" s="108">
         <f t="shared" ref="I80:I88" si="8">H80*0.1</f>
         <v>50</v>
       </c>
-      <c r="J80" s="110">
+      <c r="J80" s="109">
         <v>3.61</v>
       </c>
-      <c r="K80" s="107">
+      <c r="K80" s="106">
         <v>0.4</v>
       </c>
-      <c r="L80" s="111">
+      <c r="L80" s="110">
         <v>1230</v>
       </c>
       <c r="M80" s="3">
@@ -18717,26 +18793,26 @@
       <c r="E81" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="112">
+      <c r="F81" s="111">
         <v>0.35</v>
       </c>
-      <c r="G81" s="107">
+      <c r="G81" s="106">
         <v>1.28</v>
       </c>
-      <c r="H81" s="108">
+      <c r="H81" s="107">
         <v>750</v>
       </c>
-      <c r="I81" s="109">
+      <c r="I81" s="108">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="J81" s="110">
+      <c r="J81" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K81" s="107">
+      <c r="K81" s="106">
         <v>0.4</v>
       </c>
-      <c r="L81" s="111">
+      <c r="L81" s="110">
         <v>410</v>
       </c>
       <c r="M81" s="3">
@@ -18763,26 +18839,26 @@
       <c r="E82" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="112">
+      <c r="F82" s="111">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G82" s="107">
+      <c r="G82" s="106">
         <v>1.21</v>
       </c>
-      <c r="H82" s="108">
+      <c r="H82" s="107">
         <v>1000</v>
       </c>
-      <c r="I82" s="109">
+      <c r="I82" s="108">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J82" s="110">
+      <c r="J82" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K82" s="107">
+      <c r="K82" s="106">
         <v>0.4</v>
       </c>
-      <c r="L82" s="111">
+      <c r="L82" s="110">
         <v>165</v>
       </c>
       <c r="M82" s="3">
@@ -18809,26 +18885,26 @@
       <c r="E83" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="106">
+      <c r="F83" s="105">
         <v>0.25</v>
       </c>
-      <c r="G83" s="107">
+      <c r="G83" s="106">
         <v>1.35</v>
       </c>
-      <c r="H83" s="108">
+      <c r="H83" s="107">
         <v>600</v>
       </c>
-      <c r="I83" s="109">
+      <c r="I83" s="108">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J83" s="110">
+      <c r="J83" s="109">
         <v>3.8</v>
       </c>
-      <c r="K83" s="107">
+      <c r="K83" s="106">
         <v>0.4</v>
       </c>
-      <c r="L83" s="111">
+      <c r="L83" s="110">
         <v>1230</v>
       </c>
       <c r="M83" s="3">
@@ -18855,26 +18931,26 @@
       <c r="E84" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="106">
+      <c r="F84" s="105">
         <v>0.35</v>
       </c>
-      <c r="G84" s="107">
+      <c r="G84" s="106">
         <v>1.28</v>
       </c>
-      <c r="H84" s="108">
+      <c r="H84" s="107">
         <v>800</v>
       </c>
-      <c r="I84" s="109">
+      <c r="I84" s="108">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="J84" s="110">
+      <c r="J84" s="109">
         <v>3.3249999999999997</v>
       </c>
-      <c r="K84" s="107">
+      <c r="K84" s="106">
         <v>0.4</v>
       </c>
-      <c r="L84" s="111">
+      <c r="L84" s="110">
         <v>410</v>
       </c>
       <c r="M84" s="3">
@@ -18901,26 +18977,26 @@
       <c r="E85" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="106">
+      <c r="F85" s="105">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G85" s="107">
+      <c r="G85" s="106">
         <v>1.21</v>
       </c>
-      <c r="H85" s="108">
+      <c r="H85" s="107">
         <v>1000</v>
       </c>
-      <c r="I85" s="109">
+      <c r="I85" s="108">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J85" s="110">
+      <c r="J85" s="109">
         <v>3.0874999999999999</v>
       </c>
-      <c r="K85" s="107">
+      <c r="K85" s="106">
         <v>0.4</v>
       </c>
-      <c r="L85" s="111">
+      <c r="L85" s="110">
         <v>165</v>
       </c>
       <c r="M85" s="3">
@@ -18947,26 +19023,26 @@
       <c r="E86" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="106">
+      <c r="F86" s="105">
         <v>0.25</v>
       </c>
-      <c r="G86" s="107">
+      <c r="G86" s="106">
         <v>1.35</v>
       </c>
-      <c r="H86" s="108">
+      <c r="H86" s="107">
         <v>700</v>
       </c>
-      <c r="I86" s="109">
+      <c r="I86" s="108">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="J86" s="110">
+      <c r="J86" s="109">
         <v>4</v>
       </c>
-      <c r="K86" s="107">
+      <c r="K86" s="106">
         <v>0.4</v>
       </c>
-      <c r="L86" s="111">
+      <c r="L86" s="110">
         <v>1230</v>
       </c>
       <c r="M86" s="3">
@@ -18993,26 +19069,26 @@
       <c r="E87" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="106">
+      <c r="F87" s="105">
         <v>0.35</v>
       </c>
-      <c r="G87" s="107">
+      <c r="G87" s="106">
         <v>1.28</v>
       </c>
-      <c r="H87" s="108">
+      <c r="H87" s="107">
         <v>900</v>
       </c>
-      <c r="I87" s="109">
+      <c r="I87" s="108">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="J87" s="110">
+      <c r="J87" s="109">
         <v>3.5</v>
       </c>
-      <c r="K87" s="107">
+      <c r="K87" s="106">
         <v>0.4</v>
       </c>
-      <c r="L87" s="111">
+      <c r="L87" s="110">
         <v>410</v>
       </c>
       <c r="M87" s="3">
@@ -19039,26 +19115,26 @@
       <c r="E88" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="106">
+      <c r="F88" s="105">
         <v>0.44999999999999996</v>
       </c>
-      <c r="G88" s="107">
+      <c r="G88" s="106">
         <v>1.21</v>
       </c>
-      <c r="H88" s="108">
+      <c r="H88" s="107">
         <v>1000</v>
       </c>
-      <c r="I88" s="109">
+      <c r="I88" s="108">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J88" s="110">
+      <c r="J88" s="109">
         <v>3.25</v>
       </c>
-      <c r="K88" s="107">
+      <c r="K88" s="106">
         <v>0.4</v>
       </c>
-      <c r="L88" s="111">
+      <c r="L88" s="110">
         <v>165</v>
       </c>
       <c r="M88" s="3">
@@ -19085,25 +19161,25 @@
       <c r="E89" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="112">
+      <c r="F89" s="111">
         <v>0.15</v>
       </c>
-      <c r="G89" s="107">
+      <c r="G89" s="106">
         <v>1.35</v>
       </c>
-      <c r="H89" s="108">
+      <c r="H89" s="107">
         <v>500</v>
       </c>
-      <c r="I89" s="109">
+      <c r="I89" s="108">
         <v>50</v>
       </c>
-      <c r="J89" s="110">
+      <c r="J89" s="109">
         <v>3.61</v>
       </c>
-      <c r="K89" s="107">
+      <c r="K89" s="106">
         <v>0.4</v>
       </c>
-      <c r="L89" s="111">
+      <c r="L89" s="110">
         <v>1230</v>
       </c>
       <c r="M89" s="3">
@@ -19130,25 +19206,25 @@
       <c r="E90" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="112">
+      <c r="F90" s="111">
         <v>0.25</v>
       </c>
-      <c r="G90" s="107">
+      <c r="G90" s="106">
         <v>1.28</v>
       </c>
-      <c r="H90" s="108">
+      <c r="H90" s="107">
         <v>750</v>
       </c>
-      <c r="I90" s="109">
+      <c r="I90" s="108">
         <v>75</v>
       </c>
-      <c r="J90" s="110">
+      <c r="J90" s="109">
         <v>3.1587499999999995</v>
       </c>
-      <c r="K90" s="107">
+      <c r="K90" s="106">
         <v>0.4</v>
       </c>
-      <c r="L90" s="111">
+      <c r="L90" s="110">
         <v>410</v>
       </c>
       <c r="M90" s="3">
@@ -19175,25 +19251,25 @@
       <c r="E91" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="112">
+      <c r="F91" s="111">
         <v>0.35</v>
       </c>
-      <c r="G91" s="107">
+      <c r="G91" s="106">
         <v>1.21</v>
       </c>
-      <c r="H91" s="108">
+      <c r="H91" s="107">
         <v>1000</v>
       </c>
-      <c r="I91" s="109">
+      <c r="I91" s="108">
         <v>100</v>
       </c>
-      <c r="J91" s="110">
+      <c r="J91" s="109">
         <v>2.933125</v>
       </c>
-      <c r="K91" s="107">
+      <c r="K91" s="106">
         <v>0.4</v>
       </c>
-      <c r="L91" s="111">
+      <c r="L91" s="110">
         <v>165</v>
       </c>
       <c r="M91" s="3">

--- a/cooking_energy.xlsx
+++ b/cooking_energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/Library/CloudStorage/GoogleDrive-bikash@vasudhaindia.org/My Drive/01-cooking/01-analysis-files/cooking-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83CB97-8C52-E149-A877-39BDF5D292D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C794E-E112-1746-B8CD-40B67286BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E40E22CB-8837-485E-9211-3FB4E597DAEA}"/>
   </bookViews>
@@ -5613,7 +5613,7 @@
   <autoFilter ref="A1:N81" xr:uid="{A9B9BD97-3B75-6A48-94C3-0941384692C7}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Traditional cook stove (TCS)"/>
+        <filter val="LPG (2 burner)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11622,7 +11622,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12811,7 +12811,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
         <v>95</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.6</v>
       </c>
       <c r="G27" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H27" s="18">
         <v>1500</v>
@@ -12906,7 +12906,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="79" t="s">
         <v>95</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>0.6</v>
       </c>
       <c r="G29" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H29" s="18">
         <v>1500</v>
@@ -13001,7 +13001,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="79" t="s">
         <v>95</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>0.6</v>
       </c>
       <c r="G31" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H31" s="18">
         <v>1500</v>
@@ -13095,7 +13095,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="79" t="s">
         <v>95</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0.6</v>
       </c>
       <c r="G33" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H33" s="18">
         <v>1500</v>
@@ -13188,7 +13188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="79" t="s">
         <v>95</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>0.6</v>
       </c>
       <c r="G35" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H35" s="18">
         <v>1500</v>
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="79" t="s">
         <v>95</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>0.6</v>
       </c>
       <c r="G37" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H37" s="18">
         <v>1500</v>
@@ -13730,7 +13730,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="79" t="s">
         <v>95</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>0.6</v>
       </c>
       <c r="G47" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H47" s="18">
         <v>1500</v>
@@ -13821,7 +13821,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="79" t="s">
         <v>95</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>0.6</v>
       </c>
       <c r="G49" s="56">
-        <v>6.38</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H49" s="18">
         <v>1500</v>
@@ -14236,7 +14236,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="79" t="s">
         <v>133</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>2.933125</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="79" t="s">
         <v>133</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>3.0874999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="79" t="s">
         <v>133</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="79" t="s">
         <v>133</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>2.933125</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="79" t="s">
         <v>133</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>2.933125</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79" t="s">
         <v>133</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>3.0874999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="79" t="s">
         <v>133</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="79" t="s">
         <v>133</v>
       </c>

--- a/cooking_energy.xlsx
+++ b/cooking_energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/Library/CloudStorage/GoogleDrive-bikash@vasudhaindia.org/My Drive/01-cooking/01-analysis-files/cooking-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C794E-E112-1746-B8CD-40B67286BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE2AC9-210F-2C46-96DC-61D0A76A6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E40E22CB-8837-485E-9211-3FB4E597DAEA}"/>
   </bookViews>
@@ -5613,7 +5613,7 @@
   <autoFilter ref="A1:N81" xr:uid="{A9B9BD97-3B75-6A48-94C3-0941384692C7}">
     <filterColumn colId="3">
       <filters>
-        <filter val="LPG (2 burner)"/>
+        <filter val="PNG (2 burner)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11622,7 +11622,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="G32" sqref="G32:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12811,7 +12811,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
         <v>95</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="79" t="s">
         <v>99</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>0.6</v>
       </c>
       <c r="G28" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H28" s="18">
         <v>2000</v>
@@ -12906,7 +12906,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="79" t="s">
         <v>95</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="79" t="s">
         <v>95</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="79" t="s">
         <v>99</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>0.6</v>
       </c>
       <c r="G32" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H32" s="18">
         <v>2000</v>
@@ -13095,7 +13095,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="79" t="s">
         <v>95</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="79" t="s">
         <v>95</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="79" t="s">
         <v>99</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>0.6</v>
       </c>
       <c r="G36" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H36" s="18">
         <v>2000</v>
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="79" t="s">
         <v>95</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="79" t="s">
         <v>95</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="79" t="s">
         <v>99</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>0.6</v>
       </c>
       <c r="G48" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H48" s="18">
         <v>2000</v>
@@ -13821,7 +13821,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="79" t="s">
         <v>95</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="79" t="s">
         <v>99</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>0.6</v>
       </c>
       <c r="G50" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H50" s="18">
         <v>2000</v>
@@ -13912,7 +13912,7 @@
         <v>2.7074999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="79" t="s">
         <v>99</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>0.6</v>
       </c>
       <c r="G51" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H51" s="18">
         <v>2000</v>
@@ -13958,7 +13958,7 @@
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
         <v>99</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>0.6</v>
       </c>
       <c r="G52" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H52" s="18">
         <v>2000</v>
@@ -14004,7 +14004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="79" t="s">
         <v>99</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0.6</v>
       </c>
       <c r="G53" s="56">
-        <v>5.86</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H53" s="18">
         <v>2000</v>
